--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1.2288917519356</v>
+        <v>-4.324682701351703</v>
       </c>
       <c r="C2">
-        <v>-0.12438980349433</v>
+        <v>3.660091258637736</v>
       </c>
       <c r="D2">
-        <v>0.1335835287756822</v>
+        <v>1.731369225691766</v>
       </c>
       <c r="E2">
-        <v>-1.007302200501704</v>
+        <v>3.149790629511104</v>
       </c>
       <c r="F2">
-        <v>0.7150069165443336</v>
+        <v>-3.635177286302406</v>
       </c>
       <c r="G2">
-        <v>0.8858064366492555</v>
+        <v>0.06544417180023943</v>
       </c>
       <c r="H2">
-        <v>0.8578633617126254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.1340705272443026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.310964717698937</v>
+        <v>3.605598293642375</v>
       </c>
       <c r="C3">
-        <v>-0.05299138542892479</v>
+        <v>1.676876260696405</v>
       </c>
       <c r="D3">
-        <v>-1.193877114706311</v>
+        <v>3.095297664515743</v>
       </c>
       <c r="E3">
-        <v>0.5284320023397266</v>
+        <v>-3.689670251297767</v>
       </c>
       <c r="F3">
-        <v>0.6992315224446486</v>
+        <v>0.01095120680487852</v>
       </c>
       <c r="G3">
-        <v>0.6712884475080185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-0.1885634922396635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1743887643790487</v>
+        <v>0.8917107665847916</v>
       </c>
       <c r="C4">
-        <v>-1.315274493656435</v>
+        <v>2.310132170404129</v>
       </c>
       <c r="D4">
-        <v>0.4070346233896027</v>
+        <v>-4.47483574540938</v>
       </c>
       <c r="E4">
-        <v>0.5778341434945247</v>
+        <v>-0.7742142873067352</v>
       </c>
       <c r="F4">
-        <v>0.5498910685578946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.9737289863512772</v>
+      </c>
+      <c r="G4">
+        <v>1.180395370885164</v>
+      </c>
+      <c r="H4">
+        <v>-3.253940853883919</v>
+      </c>
+      <c r="I4">
+        <v>1.466850648880309</v>
+      </c>
+      <c r="J4">
+        <v>-0.1948090203170254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.7653714117042667</v>
+        <v>2.584158590043411</v>
       </c>
       <c r="C5">
-        <v>0.9569377053417707</v>
+        <v>-4.200809325770098</v>
       </c>
       <c r="D5">
-        <v>1.127737225446693</v>
+        <v>-0.5001878676674536</v>
       </c>
       <c r="E5">
-        <v>1.099794150510063</v>
+        <v>-0.6997025667119956</v>
       </c>
       <c r="F5">
-        <v>0.0417943296806968</v>
+        <v>1.454421790524445</v>
       </c>
       <c r="G5">
-        <v>1.189974043610603</v>
+        <v>-2.979914434244638</v>
       </c>
       <c r="H5">
-        <v>0.5199901996131175</v>
+        <v>1.74087706851959</v>
       </c>
       <c r="I5">
-        <v>0.2387894107819463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.07921739932225619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>1.060347724759331</v>
+        <v>-4.14234893673768</v>
       </c>
       <c r="C6">
-        <v>1.231147244864253</v>
+        <v>-0.4417274786350349</v>
       </c>
       <c r="D6">
-        <v>1.203204169927623</v>
+        <v>-0.6412421776795769</v>
       </c>
       <c r="E6">
-        <v>0.1452043490982575</v>
+        <v>1.512882179556864</v>
       </c>
       <c r="F6">
-        <v>1.293384063028163</v>
+        <v>-2.921454045212219</v>
       </c>
       <c r="G6">
-        <v>0.6234002190306782</v>
+        <v>1.799337457552009</v>
       </c>
       <c r="H6">
-        <v>0.342199430199507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1376777883546749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>1.034892087166212</v>
+        <v>-0.6288648973096044</v>
       </c>
       <c r="C7">
-        <v>1.006949012229582</v>
+        <v>-0.8283795963541464</v>
       </c>
       <c r="D7">
-        <v>-0.05105080859978409</v>
+        <v>1.325744760882294</v>
       </c>
       <c r="E7">
-        <v>1.097128905330122</v>
+        <v>-3.108591463886789</v>
       </c>
       <c r="F7">
-        <v>0.4271450613326366</v>
+        <v>1.61220003887744</v>
       </c>
       <c r="G7">
-        <v>0.1459442725014654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.04945963031989459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>1.244546790585269</v>
+        <v>-0.9420242164422319</v>
       </c>
       <c r="C8">
-        <v>0.1865469697559036</v>
+        <v>1.212100140794209</v>
       </c>
       <c r="D8">
-        <v>1.334726683685809</v>
+        <v>-3.222236083974874</v>
       </c>
       <c r="E8">
-        <v>0.6647428396883243</v>
+        <v>1.498555418789354</v>
       </c>
       <c r="F8">
-        <v>0.383542050857153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.1631042504079802</v>
+      </c>
+      <c r="G8">
+        <v>-1.553285820388052</v>
+      </c>
+      <c r="H8">
+        <v>-1.037158441845645</v>
+      </c>
+      <c r="I8">
+        <v>1.563884698290838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.004772052562851986</v>
+        <v>0.9834580318344777</v>
       </c>
       <c r="C9">
-        <v>1.143407661367054</v>
+        <v>-3.450878192934606</v>
       </c>
       <c r="D9">
-        <v>0.4734238173695687</v>
+        <v>1.269913309829623</v>
       </c>
       <c r="E9">
-        <v>0.1922230285383975</v>
+        <v>-0.3917463593677113</v>
       </c>
       <c r="F9">
-        <v>0.05305095209893271</v>
+        <v>-1.781927929347783</v>
       </c>
       <c r="G9">
-        <v>-0.1670266105056399</v>
+        <v>-1.265800550805376</v>
       </c>
       <c r="H9">
-        <v>-0.0280127187695981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1.335242589331107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>1.017123600738234</v>
+        <v>-3.353876282308941</v>
       </c>
       <c r="C10">
-        <v>0.3471397567407494</v>
+        <v>1.366915220455287</v>
       </c>
       <c r="D10">
-        <v>0.06593896790957821</v>
+        <v>-0.294744448742047</v>
       </c>
       <c r="E10">
-        <v>-0.07323310852988657</v>
+        <v>-1.684926018722119</v>
       </c>
       <c r="F10">
-        <v>-0.2933106711344591</v>
+        <v>-1.168798640179712</v>
       </c>
       <c r="G10">
-        <v>-0.1542967793984174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.432244499956771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1818386851424608</v>
+        <v>1.609820403724652</v>
       </c>
       <c r="C11">
-        <v>-0.0993621036887104</v>
+        <v>-0.05183926547268242</v>
       </c>
       <c r="D11">
-        <v>-0.2385341801281752</v>
+        <v>-1.442020835452754</v>
       </c>
       <c r="E11">
-        <v>-0.4586117427327477</v>
+        <v>-0.9258934569103474</v>
       </c>
       <c r="F11">
-        <v>-0.319597850996706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.675149683226136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.3746839978288476</v>
+        <v>-0.7294052785381211</v>
       </c>
       <c r="C12">
-        <v>-0.5138560742683124</v>
+        <v>-2.119586848518193</v>
       </c>
       <c r="D12">
-        <v>-0.7339336368728849</v>
+        <v>-1.603459469975786</v>
       </c>
       <c r="E12">
-        <v>-0.5949197451368432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.997583670160697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.3906527612732034</v>
+        <v>-1.846431246597561</v>
       </c>
       <c r="C13">
-        <v>-0.6107303238777759</v>
+        <v>-1.330303868055154</v>
       </c>
       <c r="D13">
-        <v>-0.4717164321417342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1.270739272081329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.6089379587817133</v>
+        <v>-1.121732059169287</v>
       </c>
       <c r="C14">
-        <v>-0.4699240670456716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1.479311080967196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.4203266124621506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1.884604928957667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-4.324682701351703</v>
+        <v>1.894657511337913</v>
       </c>
       <c r="C2">
-        <v>3.660091258637736</v>
+        <v>0.5413759559079826</v>
       </c>
       <c r="D2">
-        <v>1.731369225691766</v>
+        <v>0.7993492881779949</v>
       </c>
       <c r="E2">
-        <v>3.149790629511104</v>
+        <v>-0.3415364410993911</v>
       </c>
       <c r="F2">
-        <v>-3.635177286302406</v>
+        <v>1.380772675946646</v>
       </c>
       <c r="G2">
-        <v>0.06544417180023943</v>
+        <v>1.551572196051568</v>
       </c>
       <c r="H2">
-        <v>-0.1340705272443026</v>
+        <v>1.523629121114938</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.605598293642375</v>
+        <v>0.4868829909126217</v>
       </c>
       <c r="C3">
-        <v>1.676876260696405</v>
+        <v>0.744856323182634</v>
       </c>
       <c r="D3">
-        <v>3.095297664515743</v>
+        <v>-0.396029406094752</v>
       </c>
       <c r="E3">
-        <v>-3.689670251297767</v>
+        <v>1.326279710951285</v>
       </c>
       <c r="F3">
-        <v>0.01095120680487852</v>
+        <v>1.497079231056207</v>
       </c>
       <c r="G3">
-        <v>-0.1885634922396635</v>
+        <v>1.469136156119577</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8917107665847916</v>
+        <v>-0.04030917092897979</v>
       </c>
       <c r="C4">
-        <v>2.310132170404129</v>
+        <v>-1.181194900206366</v>
       </c>
       <c r="D4">
-        <v>-4.47483574540938</v>
+        <v>0.5411142168396716</v>
       </c>
       <c r="E4">
-        <v>-0.7742142873067352</v>
+        <v>0.7119137369445936</v>
       </c>
       <c r="F4">
-        <v>-0.9737289863512772</v>
+        <v>0.6839706620079635</v>
       </c>
       <c r="G4">
-        <v>1.180395370885164</v>
+        <v>-0.3740291588214022</v>
       </c>
       <c r="H4">
-        <v>-3.253940853883919</v>
+        <v>0.7741505551085035</v>
       </c>
       <c r="I4">
-        <v>1.466850648880309</v>
+        <v>0.1041667111110185</v>
       </c>
       <c r="J4">
-        <v>-0.1948090203170254</v>
+        <v>-0.1770340777201527</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.584158590043411</v>
+        <v>-0.9071684805670841</v>
       </c>
       <c r="C5">
-        <v>-4.200809325770098</v>
+        <v>0.8151406364789533</v>
       </c>
       <c r="D5">
-        <v>-0.5001878676674536</v>
+        <v>0.9859401565838752</v>
       </c>
       <c r="E5">
-        <v>-0.6997025667119956</v>
+        <v>0.9579970816472452</v>
       </c>
       <c r="F5">
-        <v>1.454421790524445</v>
+        <v>-0.1000027391821206</v>
       </c>
       <c r="G5">
-        <v>-2.979914434244638</v>
+        <v>1.048176974747785</v>
       </c>
       <c r="H5">
-        <v>1.74087706851959</v>
+        <v>0.3781931307503001</v>
       </c>
       <c r="I5">
-        <v>0.07921739932225619</v>
+        <v>0.09699234191912887</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-4.14234893673768</v>
+        <v>0.873601025511372</v>
       </c>
       <c r="C6">
-        <v>-0.4417274786350349</v>
+        <v>1.044400545616294</v>
       </c>
       <c r="D6">
-        <v>-0.6412421776795769</v>
+        <v>1.016457470679664</v>
       </c>
       <c r="E6">
-        <v>1.512882179556864</v>
+        <v>-0.0415423501497019</v>
       </c>
       <c r="F6">
-        <v>-2.921454045212219</v>
+        <v>1.106637363780204</v>
       </c>
       <c r="G6">
-        <v>1.799337457552009</v>
+        <v>0.4366535197827188</v>
       </c>
       <c r="H6">
-        <v>0.1376777883546749</v>
+        <v>0.1554527309515476</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.6288648973096044</v>
+        <v>0.8572631269417244</v>
       </c>
       <c r="C7">
-        <v>-0.8283795963541464</v>
+        <v>0.8293200520050943</v>
       </c>
       <c r="D7">
-        <v>1.325744760882294</v>
+        <v>-0.2286797688242714</v>
       </c>
       <c r="E7">
-        <v>-3.108591463886789</v>
+        <v>0.9194999451056343</v>
       </c>
       <c r="F7">
-        <v>1.61220003887744</v>
+        <v>0.2495161011081493</v>
       </c>
       <c r="G7">
-        <v>-0.04945963031989459</v>
+        <v>-0.03168468772302191</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.9420242164422319</v>
+        <v>0.7156754319170088</v>
       </c>
       <c r="C8">
-        <v>1.212100140794209</v>
+        <v>-0.3423243889123569</v>
       </c>
       <c r="D8">
-        <v>-3.222236083974874</v>
+        <v>0.8058553250175488</v>
       </c>
       <c r="E8">
-        <v>1.498555418789354</v>
+        <v>0.1358714810200637</v>
       </c>
       <c r="F8">
-        <v>-0.1631042504079802</v>
+        <v>-0.1453293078111075</v>
       </c>
       <c r="G8">
-        <v>-1.553285820388052</v>
+        <v>-0.2845013842505723</v>
       </c>
       <c r="H8">
-        <v>-1.037158441845645</v>
+        <v>-0.5045789468551448</v>
       </c>
       <c r="I8">
-        <v>1.563884698290838</v>
+        <v>-0.3655650551191031</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.9834580318344777</v>
+        <v>-0.5709664978720881</v>
       </c>
       <c r="C9">
-        <v>-3.450878192934606</v>
+        <v>0.5772132160578176</v>
       </c>
       <c r="D9">
-        <v>1.269913309829623</v>
+        <v>-0.09277062793966739</v>
       </c>
       <c r="E9">
-        <v>-0.3917463593677113</v>
+        <v>-0.3739714167708386</v>
       </c>
       <c r="F9">
-        <v>-1.781927929347783</v>
+        <v>-0.5131434932103034</v>
       </c>
       <c r="G9">
-        <v>-1.265800550805376</v>
+        <v>-0.733221055814876</v>
       </c>
       <c r="H9">
-        <v>1.335242589331107</v>
+        <v>-0.5942071640788342</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-3.353876282308941</v>
+        <v>0.6742151266834819</v>
       </c>
       <c r="C10">
-        <v>1.366915220455287</v>
+        <v>0.004231282685996929</v>
       </c>
       <c r="D10">
-        <v>-0.294744448742047</v>
+        <v>-0.2769695061451743</v>
       </c>
       <c r="E10">
-        <v>-1.684926018722119</v>
+        <v>-0.4161415825846391</v>
       </c>
       <c r="F10">
-        <v>-1.168798640179712</v>
+        <v>-0.6362191451892116</v>
       </c>
       <c r="G10">
-        <v>1.432244499956771</v>
+        <v>-0.4972052534531699</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.609820403724652</v>
+        <v>0.2471364659553615</v>
       </c>
       <c r="C11">
-        <v>-0.05183926547268242</v>
+        <v>-0.03406432287580974</v>
       </c>
       <c r="D11">
-        <v>-1.442020835452754</v>
+        <v>-0.1732363993152745</v>
       </c>
       <c r="E11">
-        <v>-0.9258934569103474</v>
+        <v>-0.3933139619198471</v>
       </c>
       <c r="F11">
-        <v>1.675149683226136</v>
+        <v>-0.2543000701838053</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.7294052785381211</v>
+        <v>-0.7116303359412484</v>
       </c>
       <c r="C12">
-        <v>-2.119586848518193</v>
+        <v>-0.8508024123807132</v>
       </c>
       <c r="D12">
-        <v>-1.603459469975786</v>
+        <v>-1.070879974985286</v>
       </c>
       <c r="E12">
-        <v>0.997583670160697</v>
+        <v>-0.931866083249244</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1.846431246597561</v>
+        <v>-0.5776468104600809</v>
       </c>
       <c r="C13">
-        <v>-1.330303868055154</v>
+        <v>-0.7977243730646535</v>
       </c>
       <c r="D13">
-        <v>1.270739272081329</v>
+        <v>-0.6587104813286118</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-1.121732059169287</v>
+        <v>-0.5891525641787865</v>
       </c>
       <c r="C14">
-        <v>1.479311080967196</v>
+        <v>-0.4501386724427447</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>1.884604928957667</v>
+        <v>-0.04484482445227361</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-3.516014381112426</v>
+      </c>
+      <c r="C2">
+        <v>4.369694674272838</v>
+      </c>
+      <c r="D2">
+        <v>0.6939559148089827</v>
+      </c>
+      <c r="E2">
+        <v>2.245115615686275</v>
+      </c>
+      <c r="F2">
+        <v>3.562121767586874</v>
+      </c>
+      <c r="G2">
+        <v>-0.2779421548499234</v>
+      </c>
+      <c r="H2">
+        <v>-0.5140068859829644</v>
+      </c>
+      <c r="I2">
+        <v>1.927290893162394</v>
+      </c>
+      <c r="J2">
+        <v>4.794981200793716</v>
+      </c>
+      <c r="K2">
+        <v>-5.881138883552138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.7621039669532992</v>
+      </c>
+      <c r="C3">
+        <v>2.313263667830592</v>
+      </c>
+      <c r="D3">
+        <v>3.630269819731191</v>
+      </c>
+      <c r="E3">
+        <v>-0.2097941027056069</v>
+      </c>
+      <c r="F3">
+        <v>-0.445858833838648</v>
+      </c>
+      <c r="G3">
+        <v>1.995438945306711</v>
+      </c>
+      <c r="H3">
+        <v>4.863129252938032</v>
+      </c>
+      <c r="I3">
+        <v>-5.812990831407822</v>
+      </c>
+      <c r="J3">
+        <v>1.460561055969643</v>
+      </c>
+      <c r="K3">
+        <v>3.631109907234298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3.776228895577831</v>
+      </c>
+      <c r="C4">
+        <v>-0.06383502685896691</v>
+      </c>
+      <c r="D4">
+        <v>-0.299899757992008</v>
+      </c>
+      <c r="E4">
+        <v>2.141398021153351</v>
+      </c>
+      <c r="F4">
+        <v>5.009088328784672</v>
+      </c>
+      <c r="G4">
+        <v>-5.667031755561182</v>
+      </c>
+      <c r="H4">
+        <v>1.606520131816283</v>
+      </c>
+      <c r="I4">
+        <v>3.777068983080938</v>
+      </c>
+      <c r="J4">
+        <v>-5.004246340218826</v>
+      </c>
+      <c r="K4">
+        <v>1.561084800863655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1.752232502059843</v>
+      </c>
+      <c r="C5">
+        <v>0.6890652770855155</v>
+      </c>
+      <c r="D5">
+        <v>3.556755584716836</v>
+      </c>
+      <c r="E5">
+        <v>-7.119364499629017</v>
+      </c>
+      <c r="F5">
+        <v>0.1541873877484476</v>
+      </c>
+      <c r="G5">
+        <v>2.324736239013102</v>
+      </c>
+      <c r="H5">
+        <v>-6.456579084286661</v>
+      </c>
+      <c r="I5">
+        <v>0.1087520567958193</v>
+      </c>
+      <c r="J5">
+        <v>0.4037777743409065</v>
+      </c>
+      <c r="K5">
+        <v>-2.166808583580693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3.831226774517894</v>
+      </c>
+      <c r="C6">
+        <v>-6.84489330982796</v>
+      </c>
+      <c r="D6">
+        <v>0.4286585775495056</v>
+      </c>
+      <c r="E6">
+        <v>2.59920742881416</v>
+      </c>
+      <c r="F6">
+        <v>-6.182107894485603</v>
+      </c>
+      <c r="G6">
+        <v>0.3832232465968773</v>
+      </c>
+      <c r="H6">
+        <v>0.6782489641419646</v>
+      </c>
+      <c r="I6">
+        <v>-1.892337393779635</v>
+      </c>
+      <c r="J6">
+        <v>1.355152977622061</v>
+      </c>
+      <c r="K6">
+        <v>1.091555605884131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.2453616662485714</v>
+      </c>
+      <c r="C7">
+        <v>2.415910517513226</v>
+      </c>
+      <c r="D7">
+        <v>-6.365404805786537</v>
+      </c>
+      <c r="E7">
+        <v>0.1999263352959431</v>
+      </c>
+      <c r="F7">
+        <v>0.4949520528410303</v>
+      </c>
+      <c r="G7">
+        <v>-2.075634305080569</v>
+      </c>
+      <c r="H7">
+        <v>1.171856066321127</v>
+      </c>
+      <c r="I7">
+        <v>0.9082586945831972</v>
+      </c>
+      <c r="J7">
+        <v>-1.702262283109177</v>
+      </c>
+      <c r="K7">
+        <v>0.5587677855292426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-6.220490773315806</v>
+      </c>
+      <c r="C8">
+        <v>0.3448403677666746</v>
+      </c>
+      <c r="D8">
+        <v>0.6398660853117619</v>
+      </c>
+      <c r="E8">
+        <v>-1.930720272609837</v>
+      </c>
+      <c r="F8">
+        <v>1.316770098791859</v>
+      </c>
+      <c r="G8">
+        <v>1.053172727053929</v>
+      </c>
+      <c r="H8">
+        <v>-1.557348250638445</v>
+      </c>
+      <c r="I8">
+        <v>0.7036818179999742</v>
+      </c>
+      <c r="J8">
+        <v>2.057818761722369</v>
+      </c>
+      <c r="K8">
+        <v>-1.940719748245219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1.458785584228437</v>
+      </c>
+      <c r="C9">
+        <v>-1.111800773693162</v>
+      </c>
+      <c r="D9">
+        <v>2.135689597708534</v>
+      </c>
+      <c r="E9">
+        <v>1.872092225970604</v>
+      </c>
+      <c r="F9">
+        <v>-0.73842875172177</v>
+      </c>
+      <c r="G9">
+        <v>1.522601316916649</v>
+      </c>
+      <c r="H9">
+        <v>2.876738260639044</v>
+      </c>
+      <c r="I9">
+        <v>-1.121800249328544</v>
+      </c>
+      <c r="J9">
+        <v>-1.568331859012645</v>
+      </c>
+      <c r="K9">
+        <v>0.5937230930186104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2.091471127384</v>
+      </c>
+      <c r="C10">
+        <v>1.827873755646069</v>
+      </c>
+      <c r="D10">
+        <v>-0.7826472220463045</v>
+      </c>
+      <c r="E10">
+        <v>1.478382846592115</v>
+      </c>
+      <c r="F10">
+        <v>2.832519790314509</v>
+      </c>
+      <c r="G10">
+        <v>-1.166018719653078</v>
+      </c>
+      <c r="H10">
+        <v>-1.61255032933718</v>
+      </c>
+      <c r="I10">
+        <v>0.5495046226940759</v>
+      </c>
+      <c r="J10">
+        <v>-2.89593333490856</v>
+      </c>
+      <c r="K10">
+        <v>4.639439100077116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.7678678700224836</v>
+      </c>
+      <c r="C11">
+        <v>1.493162198615936</v>
+      </c>
+      <c r="D11">
+        <v>2.84729914233833</v>
+      </c>
+      <c r="E11">
+        <v>-1.151239367629258</v>
+      </c>
+      <c r="F11">
+        <v>-1.597770977313359</v>
+      </c>
+      <c r="G11">
+        <v>0.5642839747178968</v>
+      </c>
+      <c r="H11">
+        <v>-2.881153982884739</v>
+      </c>
+      <c r="I11">
+        <v>4.654218452100936</v>
+      </c>
+      <c r="J11">
+        <v>1.107670388511424</v>
+      </c>
+      <c r="K11">
+        <v>-0.5660918067570987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.166601249370831</v>
+      </c>
+      <c r="C12">
+        <v>-0.831937260596757</v>
+      </c>
+      <c r="D12">
+        <v>-1.278468870280858</v>
+      </c>
+      <c r="E12">
+        <v>0.8835860817503973</v>
+      </c>
+      <c r="F12">
+        <v>-2.561851875852238</v>
+      </c>
+      <c r="G12">
+        <v>4.973520559133437</v>
+      </c>
+      <c r="H12">
+        <v>1.426972495543925</v>
+      </c>
+      <c r="I12">
+        <v>-0.2467896997245982</v>
+      </c>
+      <c r="J12">
+        <v>-0.621031966965472</v>
+      </c>
+      <c r="K12">
+        <v>2.380098124900275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-2.318686415913308</v>
+      </c>
+      <c r="C13">
+        <v>-0.1566314638820529</v>
+      </c>
+      <c r="D13">
+        <v>-3.602069421484688</v>
+      </c>
+      <c r="E13">
+        <v>3.933303013500987</v>
+      </c>
+      <c r="F13">
+        <v>0.3867549499114745</v>
+      </c>
+      <c r="G13">
+        <v>-1.287007245357048</v>
+      </c>
+      <c r="H13">
+        <v>-1.661249512597922</v>
+      </c>
+      <c r="I13">
+        <v>1.339880579267825</v>
+      </c>
+      <c r="J13">
+        <v>0.3637186274690521</v>
+      </c>
+      <c r="K13">
+        <v>-1.931250812616301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-3.599842607667185</v>
+      </c>
+      <c r="C14">
+        <v>3.93552982731849</v>
+      </c>
+      <c r="D14">
+        <v>0.3889817637289782</v>
+      </c>
+      <c r="E14">
+        <v>-1.284780431539545</v>
+      </c>
+      <c r="F14">
+        <v>-1.659022698780418</v>
+      </c>
+      <c r="G14">
+        <v>1.342107393085328</v>
+      </c>
+      <c r="H14">
+        <v>0.3659454412865558</v>
+      </c>
+      <c r="I14">
+        <v>-1.929023998798797</v>
+      </c>
+      <c r="J14">
+        <v>-2.284517558962435</v>
+      </c>
+      <c r="K14">
+        <v>1.948153099808124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.9193926151044308</v>
+      </c>
+      <c r="C15">
+        <v>-0.7543695801640921</v>
+      </c>
+      <c r="D15">
+        <v>-1.128611847404966</v>
+      </c>
+      <c r="E15">
+        <v>1.872518244460781</v>
+      </c>
+      <c r="F15">
+        <v>0.8963562926620084</v>
+      </c>
+      <c r="G15">
+        <v>-1.398613147423345</v>
+      </c>
+      <c r="H15">
+        <v>-1.754106707586982</v>
+      </c>
+      <c r="I15">
+        <v>2.478563951183577</v>
+      </c>
+      <c r="J15">
+        <v>0.2922238094781761</v>
+      </c>
+      <c r="K15">
+        <v>-0.2525070430096833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1.449087362785122</v>
+      </c>
+      <c r="C16">
+        <v>1.552042729080625</v>
+      </c>
+      <c r="D16">
+        <v>0.5758807772818528</v>
+      </c>
+      <c r="E16">
+        <v>-1.7190886628035</v>
+      </c>
+      <c r="F16">
+        <v>-2.074582222967138</v>
+      </c>
+      <c r="G16">
+        <v>2.158088435803421</v>
+      </c>
+      <c r="H16">
+        <v>-0.02825170590197956</v>
+      </c>
+      <c r="I16">
+        <v>-0.5729825583898389</v>
+      </c>
+      <c r="J16">
+        <v>-2.049374377194824</v>
+      </c>
+      <c r="K16">
+        <v>-0.2441020601052486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.7622085166183581</v>
+      </c>
+      <c r="C17">
+        <v>-1.532760923466995</v>
+      </c>
+      <c r="D17">
+        <v>-1.888254483630632</v>
+      </c>
+      <c r="E17">
+        <v>2.344416175139926</v>
+      </c>
+      <c r="F17">
+        <v>0.1580760334345257</v>
+      </c>
+      <c r="G17">
+        <v>-0.3866548190533337</v>
+      </c>
+      <c r="H17">
+        <v>-1.863046637858318</v>
+      </c>
+      <c r="I17">
+        <v>-0.05777432076874334</v>
+      </c>
+      <c r="J17">
+        <v>0.8691240358678698</v>
+      </c>
+      <c r="K17">
+        <v>0.7944592447074541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1.672525133230715</v>
+      </c>
+      <c r="C18">
+        <v>2.560145525539844</v>
+      </c>
+      <c r="D18">
+        <v>0.3738053838344427</v>
+      </c>
+      <c r="E18">
+        <v>-0.1709254686534166</v>
+      </c>
+      <c r="F18">
+        <v>-1.647317287458401</v>
+      </c>
+      <c r="G18">
+        <v>0.1579550296311737</v>
+      </c>
+      <c r="H18">
+        <v>1.084853386267787</v>
+      </c>
+      <c r="I18">
+        <v>1.010188595107371</v>
+      </c>
+      <c r="J18">
+        <v>-1.419234774058134</v>
+      </c>
+      <c r="K18">
+        <v>0.04370831382369145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.2579773223527511</v>
+      </c>
+      <c r="C19">
+        <v>-0.2867535301351083</v>
+      </c>
+      <c r="D19">
+        <v>-1.763145348940093</v>
+      </c>
+      <c r="E19">
+        <v>0.04212696814948202</v>
+      </c>
+      <c r="F19">
+        <v>0.9690253247860952</v>
+      </c>
+      <c r="G19">
+        <v>0.8943605336256795</v>
+      </c>
+      <c r="H19">
+        <v>-1.535062835539826</v>
+      </c>
+      <c r="I19">
+        <v>-0.07211974765800022</v>
+      </c>
+      <c r="J19">
+        <v>-0.362968985056385</v>
+      </c>
+      <c r="K19">
+        <v>-0.747292059003662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-2.456202349818023</v>
+      </c>
+      <c r="C20">
+        <v>-0.6509300327284478</v>
+      </c>
+      <c r="D20">
+        <v>0.2759683239081653</v>
+      </c>
+      <c r="E20">
+        <v>0.2013035327477496</v>
+      </c>
+      <c r="F20">
+        <v>-2.228119836417756</v>
+      </c>
+      <c r="G20">
+        <v>-0.7651767485359301</v>
+      </c>
+      <c r="H20">
+        <v>-1.056025985934315</v>
+      </c>
+      <c r="I20">
+        <v>-1.440349059881592</v>
+      </c>
+      <c r="J20">
+        <v>-2.056025985934315</v>
+      </c>
+      <c r="K20">
+        <v>0.8703887605462112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1.008486752314508</v>
+      </c>
+      <c r="C21">
+        <v>0.9338219611540921</v>
+      </c>
+      <c r="D21">
+        <v>-1.495601408011414</v>
+      </c>
+      <c r="E21">
+        <v>-0.03265832012958758</v>
+      </c>
+      <c r="F21">
+        <v>-0.3235075575279723</v>
+      </c>
+      <c r="G21">
+        <v>-0.7078306314752494</v>
+      </c>
+      <c r="H21">
+        <v>-1.323507557527972</v>
+      </c>
+      <c r="I21">
+        <v>1.602907188952554</v>
+      </c>
+      <c r="J21">
+        <v>-0.5964879289583422</v>
+      </c>
+      <c r="K21">
+        <v>-0.02395760889172327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1.456631087759132</v>
+      </c>
+      <c r="C22">
+        <v>0.006312000122693506</v>
+      </c>
+      <c r="D22">
+        <v>-0.2845372372756912</v>
+      </c>
+      <c r="E22">
+        <v>-0.6688603112229683</v>
+      </c>
+      <c r="F22">
+        <v>-1.284537237275691</v>
+      </c>
+      <c r="G22">
+        <v>1.641877509204835</v>
+      </c>
+      <c r="H22">
+        <v>-0.5575176087060612</v>
+      </c>
+      <c r="I22">
+        <v>0.01501271136055782</v>
+      </c>
+      <c r="J22">
+        <v>-3.484537237275691</v>
+      </c>
+      <c r="K22">
+        <v>4.837596179150056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.02350673272687087</v>
+      </c>
+      <c r="C23">
+        <v>-0.2673425046715139</v>
+      </c>
+      <c r="D23">
+        <v>-0.6516655786187909</v>
+      </c>
+      <c r="E23">
+        <v>-1.267342504671514</v>
+      </c>
+      <c r="F23">
+        <v>1.659072241809012</v>
+      </c>
+      <c r="G23">
+        <v>-0.5403228761018838</v>
+      </c>
+      <c r="H23">
+        <v>0.03220744396473518</v>
+      </c>
+      <c r="I23">
+        <v>-3.467342504671513</v>
+      </c>
+      <c r="J23">
+        <v>4.854790911754233</v>
+      </c>
+      <c r="K23">
+        <v>1.02684114070503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.01764848384110285</v>
+      </c>
+      <c r="C24">
+        <v>-0.4019715577883799</v>
+      </c>
+      <c r="D24">
+        <v>-1.017648483841103</v>
+      </c>
+      <c r="E24">
+        <v>1.908766262639423</v>
+      </c>
+      <c r="F24">
+        <v>-0.2906288552714728</v>
+      </c>
+      <c r="G24">
+        <v>0.2819014647951462</v>
+      </c>
+      <c r="H24">
+        <v>-3.217648483841102</v>
+      </c>
+      <c r="I24">
+        <v>5.104484932584644</v>
+      </c>
+      <c r="J24">
+        <v>1.276535161535441</v>
+      </c>
+      <c r="K24">
+        <v>0.00219250742545396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-0.5933714248256349</v>
+      </c>
+      <c r="C25">
+        <v>-1.209048350878358</v>
+      </c>
+      <c r="D25">
+        <v>1.717366395602168</v>
+      </c>
+      <c r="E25">
+        <v>-0.4820287223087277</v>
+      </c>
+      <c r="F25">
+        <v>0.09050159775789124</v>
+      </c>
+      <c r="G25">
+        <v>-3.409048350878357</v>
+      </c>
+      <c r="H25">
+        <v>4.913085065547389</v>
+      </c>
+      <c r="I25">
+        <v>1.085135294498186</v>
+      </c>
+      <c r="J25">
+        <v>-0.189207359611801</v>
+      </c>
+      <c r="K25">
+        <v>4.320121521030414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-1.298584459373543</v>
+      </c>
+      <c r="C26">
+        <v>1.627830287106983</v>
+      </c>
+      <c r="D26">
+        <v>-0.5715648308039126</v>
+      </c>
+      <c r="E26">
+        <v>0.0009654892627063427</v>
+      </c>
+      <c r="F26">
+        <v>-3.498584459373542</v>
+      </c>
+      <c r="G26">
+        <v>4.823548957052205</v>
+      </c>
+      <c r="H26">
+        <v>0.9955991860030007</v>
+      </c>
+      <c r="I26">
+        <v>-0.2787434681069859</v>
+      </c>
+      <c r="J26">
+        <v>4.23058541253523</v>
+      </c>
+      <c r="K26">
+        <v>-0.08652566914583326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1.79909079772887</v>
+      </c>
+      <c r="C27">
+        <v>-0.4003043201820262</v>
+      </c>
+      <c r="D27">
+        <v>0.1722259998845928</v>
+      </c>
+      <c r="E27">
+        <v>-3.327323948751656</v>
+      </c>
+      <c r="F27">
+        <v>4.994809467674092</v>
+      </c>
+      <c r="G27">
+        <v>1.166859696624887</v>
+      </c>
+      <c r="H27">
+        <v>-0.1074829574850995</v>
+      </c>
+      <c r="I27">
+        <v>4.401845923157116</v>
+      </c>
+      <c r="J27">
+        <v>0.08473484147605315</v>
+      </c>
+      <c r="K27">
+        <v>-0.3229153624539502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.2150634246884948</v>
+      </c>
+      <c r="C28">
+        <v>0.3574668953781241</v>
+      </c>
+      <c r="D28">
+        <v>-3.142083053258125</v>
+      </c>
+      <c r="E28">
+        <v>5.180050363167623</v>
+      </c>
+      <c r="F28">
+        <v>1.352100592118418</v>
+      </c>
+      <c r="G28">
+        <v>0.07775793800843189</v>
+      </c>
+      <c r="H28">
+        <v>4.587086818650647</v>
+      </c>
+      <c r="I28">
+        <v>0.2699757369695845</v>
+      </c>
+      <c r="J28">
+        <v>-0.1376744669604189</v>
+      </c>
+      <c r="K28">
+        <v>0.6203351372747932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.2450347490129104</v>
+      </c>
+      <c r="C29">
+        <v>-3.254515199623338</v>
+      </c>
+      <c r="D29">
+        <v>5.067618216802409</v>
+      </c>
+      <c r="E29">
+        <v>1.239668445753205</v>
+      </c>
+      <c r="F29">
+        <v>-0.03467420835678181</v>
+      </c>
+      <c r="G29">
+        <v>4.474654672285434</v>
+      </c>
+      <c r="H29">
+        <v>0.1575435906043708</v>
+      </c>
+      <c r="I29">
+        <v>-0.2501066133256326</v>
+      </c>
+      <c r="J29">
+        <v>0.5079029909095796</v>
+      </c>
+      <c r="K29">
+        <v>-1.262289078506391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-3.428762574899286</v>
+      </c>
+      <c r="C30">
+        <v>4.893370841526461</v>
+      </c>
+      <c r="D30">
+        <v>1.065421070477257</v>
+      </c>
+      <c r="E30">
+        <v>-0.2089215836327298</v>
+      </c>
+      <c r="F30">
+        <v>4.300407297009485</v>
+      </c>
+      <c r="G30">
+        <v>-0.01670378467157718</v>
+      </c>
+      <c r="H30">
+        <v>-0.4243539886015806</v>
+      </c>
+      <c r="I30">
+        <v>0.3336556156336315</v>
+      </c>
+      <c r="J30">
+        <v>-1.436536453782339</v>
+      </c>
+      <c r="K30">
+        <v>2.267514828738953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>4.85348042723649</v>
+      </c>
+      <c r="C31">
+        <v>1.025530656187286</v>
+      </c>
+      <c r="D31">
+        <v>-0.2488119979227008</v>
+      </c>
+      <c r="E31">
+        <v>4.260516882719514</v>
+      </c>
+      <c r="F31">
+        <v>-0.05659419896154816</v>
+      </c>
+      <c r="G31">
+        <v>-0.4642444028915516</v>
+      </c>
+      <c r="H31">
+        <v>0.2937652013436605</v>
+      </c>
+      <c r="I31">
+        <v>-1.47642686807231</v>
+      </c>
+      <c r="J31">
+        <v>2.227624414448982</v>
+      </c>
+      <c r="K31">
+        <v>0.8743428590190518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1.409355631341397</v>
+      </c>
+      <c r="C32">
+        <v>0.1350129772314108</v>
+      </c>
+      <c r="D32">
+        <v>4.644341857873626</v>
+      </c>
+      <c r="E32">
+        <v>0.3272307761925635</v>
+      </c>
+      <c r="F32">
+        <v>-0.08041942773743993</v>
+      </c>
+      <c r="G32">
+        <v>0.6775901764977721</v>
+      </c>
+      <c r="H32">
+        <v>-1.092601892918198</v>
+      </c>
+      <c r="I32">
+        <v>2.611449389603094</v>
+      </c>
+      <c r="J32">
+        <v>1.258167834173163</v>
+      </c>
+      <c r="K32">
+        <v>1.516141166443176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.2820934765135663</v>
+      </c>
+      <c r="C33">
+        <v>4.227235404128649</v>
+      </c>
+      <c r="D33">
+        <v>-0.08987567755241366</v>
+      </c>
+      <c r="E33">
+        <v>-0.4975258814824171</v>
+      </c>
+      <c r="F33">
+        <v>0.260483722752795</v>
+      </c>
+      <c r="G33">
+        <v>-1.509708346663175</v>
+      </c>
+      <c r="H33">
+        <v>2.194342935858117</v>
+      </c>
+      <c r="I33">
+        <v>0.8410613804281863</v>
+      </c>
+      <c r="J33">
+        <v>1.099034712698199</v>
+      </c>
+      <c r="K33">
+        <v>-0.04185101657918744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>4.01495363885145</v>
+      </c>
+      <c r="C34">
+        <v>-0.3021574428296124</v>
+      </c>
+      <c r="D34">
+        <v>-0.7098076467596157</v>
+      </c>
+      <c r="E34">
+        <v>0.0482019574755963</v>
+      </c>
+      <c r="F34">
+        <v>-1.721990111940374</v>
+      </c>
+      <c r="G34">
+        <v>1.982061170580918</v>
+      </c>
+      <c r="H34">
+        <v>0.6287796151509876</v>
+      </c>
+      <c r="I34">
+        <v>0.8867529474209999</v>
+      </c>
+      <c r="J34">
+        <v>-0.2541327818563862</v>
+      </c>
+      <c r="K34">
+        <v>1.468176335189651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.6495482989178999</v>
+      </c>
+      <c r="C35">
+        <v>-1.057198502847903</v>
+      </c>
+      <c r="D35">
+        <v>-0.2991888986126912</v>
+      </c>
+      <c r="E35">
+        <v>-2.069380968028661</v>
+      </c>
+      <c r="F35">
+        <v>1.63467031449263</v>
+      </c>
+      <c r="G35">
+        <v>0.2813887590627001</v>
+      </c>
+      <c r="H35">
+        <v>0.5393620913327123</v>
+      </c>
+      <c r="I35">
+        <v>-0.6015236379446737</v>
+      </c>
+      <c r="J35">
+        <v>1.120785479101364</v>
+      </c>
+      <c r="K35">
+        <v>1.291584999206286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.4477713346344017</v>
+      </c>
+      <c r="C36">
+        <v>0.3102382696008104</v>
+      </c>
+      <c r="D36">
+        <v>-1.45995379981516</v>
+      </c>
+      <c r="E36">
+        <v>2.244097482706132</v>
+      </c>
+      <c r="F36">
+        <v>0.8908159272762017</v>
+      </c>
+      <c r="G36">
+        <v>1.148789259546214</v>
+      </c>
+      <c r="H36">
+        <v>0.007903530268827952</v>
+      </c>
+      <c r="I36">
+        <v>1.730212647314865</v>
+      </c>
+      <c r="J36">
+        <v>1.901012167419787</v>
+      </c>
+      <c r="K36">
+        <v>1.873069092483157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.01871150241184077</v>
+      </c>
+      <c r="C37">
+        <v>-1.788903571827811</v>
+      </c>
+      <c r="D37">
+        <v>1.915147710693481</v>
+      </c>
+      <c r="E37">
+        <v>0.5618661552635505</v>
+      </c>
+      <c r="F37">
+        <v>0.8198394875335627</v>
+      </c>
+      <c r="G37">
+        <v>-0.3210462417438232</v>
+      </c>
+      <c r="H37">
+        <v>1.401262875302214</v>
+      </c>
+      <c r="I37">
+        <v>1.572062395407136</v>
+      </c>
+      <c r="J37">
+        <v>1.544119320470506</v>
+      </c>
+      <c r="K37">
+        <v>0.4861194996411403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.82965546559878</v>
+      </c>
+      <c r="C38">
+        <v>1.874395816922512</v>
+      </c>
+      <c r="D38">
+        <v>0.5211142614925818</v>
+      </c>
+      <c r="E38">
+        <v>0.7790875937625941</v>
+      </c>
+      <c r="F38">
+        <v>-0.361798135514792</v>
+      </c>
+      <c r="G38">
+        <v>1.360510981531246</v>
+      </c>
+      <c r="H38">
+        <v>1.531310501636167</v>
+      </c>
+      <c r="I38">
+        <v>1.503367426699537</v>
+      </c>
+      <c r="J38">
+        <v>0.4453676058701716</v>
+      </c>
+      <c r="K38">
+        <v>1.593547319800077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>1.894657511337913</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.5413759559079826</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.7993492881779949</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>-0.3415364410993911</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>1.380772675946646</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>1.551572196051568</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>1.523629121114938</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.4656293002855724</v>
+      </c>
+      <c r="J39">
+        <v>1.613809014215478</v>
+      </c>
+      <c r="K39">
+        <v>0.9438251702179932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.4868829909126217</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>0.744856323182634</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>-0.396029406094752</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>1.326279710951285</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>1.497079231056207</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>1.469136156119577</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.4111363352902115</v>
+      </c>
+      <c r="I40">
+        <v>1.559316049220117</v>
+      </c>
+      <c r="J40">
+        <v>0.8893322052226322</v>
+      </c>
+      <c r="K40">
+        <v>0.608131416391461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.04030917092897979</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>-1.181194900206366</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.5411142168396716</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.7119137369445936</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.6839706620079635</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>-0.3740291588214022</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.7741505551085035</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.1041667111110185</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.1770340777201527</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.3162061541596175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.9071684805670841</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.8151406364789533</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.9859401565838752</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.9579970816472452</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.1000027391821206</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>1.048176974747785</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.3781931307503001</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.09699234191912887</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.04217973452033591</v>
+      </c>
+      <c r="K42">
+        <v>-0.2622572971249085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.873601025511372</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>1.044400545616294</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>1.016457470679664</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.0415423501497019</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>1.106637363780204</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.4366535197827188</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.1554527309515476</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.0162806545120828</v>
+      </c>
+      <c r="J43">
+        <v>-0.2037969080924898</v>
+      </c>
+      <c r="K43">
+        <v>-0.06478301635644801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.8572631269417244</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.8293200520050943</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.2286797688242714</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.9194999451056343</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.2495161011081493</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.03168468772302191</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.1708567641624867</v>
+      </c>
+      <c r="I44">
+        <v>-0.3909343267670592</v>
+      </c>
+      <c r="J44">
+        <v>-0.2519204350310175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.7156754319170088</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-0.3423243889123569</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.8058553250175488</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.1358714810200637</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.1453293078111075</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-0.2845013842505723</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.5045789468551448</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.3655650551191031</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.5709664978720881</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.5772132160578176</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>-0.09277062793966739</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.3739714167708386</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.5131434932103034</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.733221055814876</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.5942071640788342</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.6742151266834819</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.004231282685996929</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.2769695061451743</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.4161415825846391</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.6362191451892116</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.4972052534531699</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.2471364659553615</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.03406432287580974</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.1732363993152745</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.3933139619198471</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.2543000701838053</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.7116303359412484</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.8508024123807132</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-1.070879974985286</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.931866083249244</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.5776468104600809</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.7977243730646535</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.6587104813286118</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.5891525641787865</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.4501386724427447</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.04484482445227361</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.507470539621765</v>
+      </c>
+      <c r="C2">
         <v>-3.516014381112426</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4.369694674272838</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.6939559148089827</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.245115615686275</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.562121767586874</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.2779421548499234</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.5140068859829644</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.927290893162394</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.794981200793716</v>
-      </c>
-      <c r="K2">
-        <v>-5.881138883552138</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>4.437842726417154</v>
+      </c>
+      <c r="C3">
         <v>0.7621039669532992</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.313263667830592</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.630269819731191</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.2097941027056069</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.445858833838648</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.995438945306711</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.863129252938032</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-5.812990831407822</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.460561055969643</v>
-      </c>
-      <c r="K3">
-        <v>3.631109907234298</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>2.459222743677232</v>
+      </c>
+      <c r="C4">
         <v>3.776228895577831</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.06383502685896691</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.299899757992008</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.141398021153351</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.009088328784672</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-5.667031755561182</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.606520131816283</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.777068983080938</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-5.004246340218826</v>
-      </c>
-      <c r="K4">
-        <v>1.561084800863655</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-1.516167770926802</v>
+      </c>
+      <c r="C5">
         <v>-1.752232502059843</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.6890652770855155</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3.556755584716836</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-7.119364499629017</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1541873877484476</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.324736239013102</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-6.456579084286661</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.1087520567958193</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.4037777743409065</v>
-      </c>
-      <c r="K5">
-        <v>-2.166808583580693</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.9635364668865735</v>
+      </c>
+      <c r="C6">
         <v>3.831226774517894</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-6.84489330982796</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.4286585775495056</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.59920742881416</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-6.182107894485603</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.3832232465968773</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.6782489641419646</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1.892337393779635</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.355152977622061</v>
-      </c>
-      <c r="K6">
-        <v>1.091555605884131</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-7.028190221128893</v>
+      </c>
+      <c r="C7">
         <v>0.2453616662485714</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.415910517513226</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-6.365404805786537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1999263352959431</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4949520528410303</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-2.075634305080569</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.171856066321127</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.9082586945831972</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.702262283109177</v>
-      </c>
-      <c r="K7">
-        <v>0.5587677855292426</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>2.560824549983958</v>
+      </c>
+      <c r="C8">
         <v>-6.220490773315806</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3448403677666746</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.6398660853117619</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1.930720272609837</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.316770098791859</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.053172727053929</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-1.557348250638445</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.7036818179999742</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.057818761722369</v>
-      </c>
-      <c r="K8">
-        <v>-1.940719748245219</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>1.16375986668335</v>
+      </c>
+      <c r="C9">
         <v>1.458785584228437</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1.111800773693162</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.135689597708534</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.872092225970604</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.73842875172177</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.522601316916649</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.876738260639044</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-1.121800249328544</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-1.568331859012645</v>
-      </c>
-      <c r="K9">
-        <v>0.5937230930186104</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-1.156019244017697</v>
+      </c>
+      <c r="C10">
         <v>2.091471127384</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.827873755646069</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.7826472220463045</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.478382846592115</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.832519790314509</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-1.166018719653078</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-1.61255032933718</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.5495046226940759</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-2.89593333490856</v>
-      </c>
-      <c r="K10">
-        <v>4.639439100077116</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>1.84265310766989</v>
+      </c>
+      <c r="C11">
         <v>-0.7678678700224836</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.493162198615936</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.84729914233833</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-1.151239367629258</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1.597770977313359</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.5642839747178968</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-2.881153982884739</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4.654218452100936</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.107670388511424</v>
-      </c>
-      <c r="K11">
-        <v>-0.5660918067570987</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>1.812464305648436</v>
+      </c>
+      <c r="C12">
         <v>3.166601249370831</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.831937260596757</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-1.278468870280858</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.8835860817503973</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2.561851875852238</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4.973520559133437</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.426972495543925</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.2467896997245982</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.621031966965472</v>
-      </c>
-      <c r="K12">
-        <v>2.380098124900275</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-1.872154806229207</v>
+      </c>
+      <c r="C13">
         <v>-2.318686415913308</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.1566314638820529</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-3.602069421484688</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.933303013500987</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.3867549499114745</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-1.287007245357048</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-1.661249512597922</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.339880579267825</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.3637186274690521</v>
-      </c>
-      <c r="K13">
-        <v>-1.931250812616301</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.1544046500645492</v>
+      </c>
+      <c r="C14">
         <v>-3.599842607667185</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3.93552982731849</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3889817637289782</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-1.284780431539545</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1.659022698780418</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.342107393085328</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.3659454412865558</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-1.929023998798797</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-2.284517558962435</v>
-      </c>
-      <c r="K14">
-        <v>1.948153099808124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>4.465940678693944</v>
+      </c>
+      <c r="C15">
         <v>0.9193926151044308</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.7543695801640921</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-1.128611847404966</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.872518244460781</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.8963562926620084</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-1.398613147423345</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-1.754106707586982</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.478563951183577</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.2922238094781761</v>
-      </c>
-      <c r="K15">
-        <v>-0.2525070430096833</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-1.074845095544248</v>
+      </c>
+      <c r="C16">
         <v>-1.449087362785122</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.552042729080625</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.5758807772818528</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1.7190886628035</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-2.074582222967138</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.158088435803421</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.02825170590197956</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.5729825583898389</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-2.049374377194824</v>
-      </c>
-      <c r="K16">
-        <v>-0.2441020601052486</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>1.738370468417131</v>
+      </c>
+      <c r="C17">
         <v>0.7622085166183581</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-1.532760923466995</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-1.888254483630632</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.344416175139926</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.1580760334345257</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.3866548190533337</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-1.863046637858318</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.05777432076874334</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.8691240358678698</v>
-      </c>
-      <c r="K17">
-        <v>0.7944592447074541</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-1.317031573067078</v>
+      </c>
+      <c r="C18">
         <v>-1.672525133230715</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.560145525539844</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.3738053838344427</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.1709254686534166</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-1.647317287458401</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.1579550296311737</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.084853386267787</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.010188595107371</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1.419234774058134</v>
-      </c>
-      <c r="K18">
-        <v>0.04370831382369145</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>2.444317464058152</v>
+      </c>
+      <c r="C19">
         <v>0.2579773223527511</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.2867535301351083</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-1.763145348940093</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.04212696814948202</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.9690253247860952</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.8943605336256795</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-1.535062835539826</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.07211974765800022</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.362968985056385</v>
-      </c>
-      <c r="K19">
-        <v>-0.747292059003662</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.9798105310130382</v>
+      </c>
+      <c r="C20">
         <v>-2.456202349818023</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.6509300327284478</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2759683239081653</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.2013035327477496</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-2.228119836417756</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.7651767485359301</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-1.056025985934315</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1.440349059881592</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-2.056025985934315</v>
-      </c>
-      <c r="K20">
-        <v>0.8703887605462112</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.08158839567789467</v>
+      </c>
+      <c r="C21">
         <v>1.008486752314508</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.9338219611540921</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-1.495601408011414</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.03265832012958758</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.3235075575279723</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.7078306314752494</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-1.323507557527972</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.602907188952554</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.5964879289583422</v>
-      </c>
-      <c r="K21">
-        <v>-0.02395760889172327</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.9727922814063732</v>
+      </c>
+      <c r="C22">
         <v>-1.456631087759132</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.006312000122693506</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.2845372372756912</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-0.6688603112229683</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-1.284537237275691</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.641877509204835</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.5575176087060612</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.01501271136055782</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-3.484537237275691</v>
-      </c>
-      <c r="K22">
-        <v>4.837596179150056</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-1.439436355154955</v>
+      </c>
+      <c r="C23">
         <v>0.02350673272687087</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.2673425046715139</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-0.6516655786187909</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-1.267342504671514</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.659072241809012</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.5403228761018838</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.03220744396473518</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-3.467342504671513</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4.854790911754233</v>
-      </c>
-      <c r="K23">
-        <v>1.02684114070503</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.2732007535572819</v>
+      </c>
+      <c r="C24">
         <v>-0.01764848384110285</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-0.4019715577883799</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-1.017648483841103</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.908766262639423</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.2906288552714728</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.2819014647951462</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-3.217648483841102</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5.104484932584644</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.276535161535441</v>
-      </c>
-      <c r="K24">
-        <v>0.00219250742545396</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>-0.2090483508783578</v>
+      </c>
+      <c r="C25">
         <v>-0.5933714248256349</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-1.209048350878358</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.717366395602168</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.4820287223087277</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.09050159775789124</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-3.409048350878357</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4.913085065547389</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.085135294498186</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.189207359611801</v>
-      </c>
-      <c r="K25">
-        <v>4.320121521030414</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.6829075333208198</v>
+      </c>
+      <c r="C26">
         <v>-1.298584459373543</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.627830287106983</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.5715648308039126</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.0009654892627063427</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-3.498584459373542</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4.823548957052205</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.9955991860030007</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.2787434681069859</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4.23058541253523</v>
-      </c>
-      <c r="K26">
-        <v>-0.08652566914583326</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-1.127323948751656</v>
+      </c>
+      <c r="C27">
         <v>1.79909079772887</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.4003043201820262</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.1722259998845928</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-3.327323948751656</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4.994809467674092</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.166859696624887</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.1074829574850995</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4.401845923157116</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.08473484147605315</v>
-      </c>
-      <c r="K27">
-        <v>-0.3229153624539502</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>1.984331693222401</v>
+      </c>
+      <c r="C28">
         <v>-0.2150634246884948</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.3574668953781241</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-3.142083053258125</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5.180050363167623</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.352100592118418</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.07775793800843189</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.587086818650647</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.2699757369695845</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.1376744669604189</v>
-      </c>
-      <c r="K28">
-        <v>0.6203351372747932</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.3274955710537085</v>
+      </c>
+      <c r="C29">
         <v>0.2450347490129104</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-3.254515199623338</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.067618216802409</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.239668445753205</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.03467420835678181</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>4.474654672285434</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.1575435906043708</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.2501066133256326</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.5079029909095796</v>
-      </c>
-      <c r="K29">
-        <v>-1.262289078506391</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.07078737373696242</v>
+      </c>
+      <c r="C30">
         <v>-3.428762574899286</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4.893370841526461</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.065421070477257</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.2089215836327298</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4.300407297009485</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.01670378467157718</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.4243539886015806</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.3336556156336315</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1.436536453782339</v>
-      </c>
-      <c r="K30">
-        <v>2.267514828738953</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>-3.468652989189257</v>
+      </c>
+      <c r="C31">
         <v>4.85348042723649</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.025530656187286</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.2488119979227008</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4.260516882719514</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.05659419896154816</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.4642444028915516</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.2937652013436605</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-1.47642686807231</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2.227624414448982</v>
-      </c>
-      <c r="K31">
-        <v>0.8743428590190518</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>5.237305402390602</v>
+      </c>
+      <c r="C32">
         <v>1.409355631341397</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.1350129772314108</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>4.644341857873626</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.3272307761925635</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.08041942773743993</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.6775901764977721</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-1.092601892918198</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2.611449389603094</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.258167834173163</v>
-      </c>
-      <c r="K32">
-        <v>1.516141166443176</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0.9922491775964202</v>
+      </c>
+      <c r="C33">
         <v>-0.2820934765135663</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>4.227235404128649</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-0.08987567755241366</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-0.4975258814824171</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.260483722752795</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-1.509708346663175</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.194342935858117</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.8410613804281863</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.099034712698199</v>
-      </c>
-      <c r="K33">
-        <v>-0.04185101657918744</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-0.494375241790765</v>
+      </c>
+      <c r="C34">
         <v>4.01495363885145</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-0.3021574428296124</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.7098076467596157</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.0482019574755963</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1.721990111940374</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.982061170580918</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.6287796151509876</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.8867529474209999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.2541327818563862</v>
-      </c>
-      <c r="K34">
-        <v>1.468176335189651</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>3.667562782763162</v>
+      </c>
+      <c r="C35">
         <v>-0.6495482989178999</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1.057198502847903</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.2991888986126912</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-2.069380968028661</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1.63467031449263</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2813887590627001</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.5393620913327123</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.6015236379446737</v>
-      </c>
-      <c r="J35">
-        <v>1.120785479101364</v>
-      </c>
-      <c r="K35">
-        <v>1.291584999206286</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-0.04012113070439827</v>
+      </c>
+      <c r="C36">
         <v>-0.4477713346344017</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3102382696008104</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-1.45995379981516</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.244097482706132</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.8908159272762017</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.148789259546214</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.007903530268827952</v>
-      </c>
-      <c r="I36">
-        <v>1.730212647314865</v>
-      </c>
-      <c r="J36">
-        <v>1.901012167419787</v>
-      </c>
-      <c r="K36">
-        <v>1.873069092483157</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-0.7767211066470529</v>
+      </c>
+      <c r="C37">
         <v>-0.01871150241184077</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-1.788903571827811</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.915147710693481</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.5618661552635505</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.8198394875335627</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.3210462417438232</v>
-      </c>
-      <c r="H37">
-        <v>1.401262875302214</v>
-      </c>
-      <c r="I37">
-        <v>1.572062395407136</v>
-      </c>
-      <c r="J37">
-        <v>1.544119320470506</v>
-      </c>
-      <c r="K37">
-        <v>0.4861194996411403</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-0.05946339618280949</v>
+      </c>
+      <c r="C38">
         <v>-1.82965546559878</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.874395816922512</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.5211142614925818</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.7790875937625941</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.361798135514792</v>
-      </c>
-      <c r="G38">
-        <v>1.360510981531246</v>
-      </c>
-      <c r="H38">
-        <v>1.531310501636167</v>
-      </c>
-      <c r="I38">
-        <v>1.503367426699537</v>
-      </c>
-      <c r="J38">
-        <v>0.4453676058701716</v>
-      </c>
-      <c r="K38">
-        <v>1.593547319800077</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>-1.809393771183379</v>
+      </c>
+      <c r="C39">
         <v>1.894657511337913</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.5413759559079826</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.7993492881779949</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.3415364410993911</v>
-      </c>
-      <c r="F39">
-        <v>1.380772675946646</v>
-      </c>
-      <c r="G39">
-        <v>1.551572196051568</v>
-      </c>
-      <c r="H39">
-        <v>1.523629121114938</v>
-      </c>
-      <c r="I39">
-        <v>0.4656293002855724</v>
-      </c>
-      <c r="J39">
-        <v>1.613809014215478</v>
-      </c>
-      <c r="K39">
-        <v>0.9438251702179932</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>1.840164546342552</v>
+      </c>
+      <c r="C40">
         <v>0.4868829909126217</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.744856323182634</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.396029406094752</v>
-      </c>
-      <c r="E40">
-        <v>1.326279710951285</v>
-      </c>
-      <c r="F40">
-        <v>1.497079231056207</v>
-      </c>
-      <c r="G40">
-        <v>1.469136156119577</v>
-      </c>
-      <c r="H40">
-        <v>0.4111363352902115</v>
-      </c>
-      <c r="I40">
-        <v>1.559316049220117</v>
-      </c>
-      <c r="J40">
-        <v>0.8893322052226322</v>
-      </c>
-      <c r="K40">
-        <v>0.608131416391461</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-0.298282503198992</v>
+      </c>
+      <c r="C41">
         <v>-0.04030917092897979</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-1.181194900206366</v>
-      </c>
-      <c r="D41">
-        <v>0.5411142168396716</v>
-      </c>
-      <c r="E41">
-        <v>0.7119137369445936</v>
-      </c>
-      <c r="F41">
-        <v>0.6839706620079635</v>
-      </c>
-      <c r="G41">
-        <v>-0.3740291588214022</v>
-      </c>
-      <c r="H41">
-        <v>0.7741505551085035</v>
-      </c>
-      <c r="I41">
-        <v>0.1041667111110185</v>
-      </c>
-      <c r="J41">
-        <v>-0.1770340777201527</v>
-      </c>
-      <c r="K41">
-        <v>-0.3162061541596175</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0.2337172487103018</v>
+      </c>
+      <c r="C42">
         <v>-0.9071684805670841</v>
-      </c>
-      <c r="C42">
-        <v>0.8151406364789533</v>
-      </c>
-      <c r="D42">
-        <v>0.9859401565838752</v>
-      </c>
-      <c r="E42">
-        <v>0.9579970816472452</v>
-      </c>
-      <c r="F42">
-        <v>-0.1000027391821206</v>
-      </c>
-      <c r="G42">
-        <v>1.048176974747785</v>
-      </c>
-      <c r="H42">
-        <v>0.3781931307503001</v>
-      </c>
-      <c r="I42">
-        <v>0.09699234191912887</v>
-      </c>
-      <c r="J42">
-        <v>-0.04217973452033591</v>
-      </c>
-      <c r="K42">
-        <v>-0.2622572971249085</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.873601025511372</v>
-      </c>
-      <c r="C43">
-        <v>1.044400545616294</v>
-      </c>
-      <c r="D43">
-        <v>1.016457470679664</v>
-      </c>
-      <c r="E43">
-        <v>-0.0415423501497019</v>
-      </c>
-      <c r="F43">
-        <v>1.106637363780204</v>
-      </c>
-      <c r="G43">
-        <v>0.4366535197827188</v>
-      </c>
-      <c r="H43">
-        <v>0.1554527309515476</v>
-      </c>
-      <c r="I43">
-        <v>0.0162806545120828</v>
-      </c>
-      <c r="J43">
-        <v>-0.2037969080924898</v>
-      </c>
-      <c r="K43">
-        <v>-0.06478301635644801</v>
+        <v>-0.8487080915346654</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.8572631269417244</v>
-      </c>
-      <c r="C44">
-        <v>0.8293200520050943</v>
-      </c>
-      <c r="D44">
-        <v>-0.2286797688242714</v>
-      </c>
-      <c r="E44">
-        <v>0.9194999451056343</v>
-      </c>
-      <c r="F44">
-        <v>0.2495161011081493</v>
-      </c>
-      <c r="G44">
-        <v>-0.03168468772302191</v>
-      </c>
-      <c r="H44">
-        <v>-0.1708567641624867</v>
-      </c>
-      <c r="I44">
-        <v>-0.3909343267670592</v>
-      </c>
-      <c r="J44">
-        <v>-0.2519204350310175</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.7156754319170088</v>
-      </c>
-      <c r="C45">
-        <v>-0.3423243889123569</v>
-      </c>
-      <c r="D45">
-        <v>0.8058553250175488</v>
-      </c>
-      <c r="E45">
-        <v>0.1358714810200637</v>
-      </c>
-      <c r="F45">
-        <v>-0.1453293078111075</v>
-      </c>
-      <c r="G45">
-        <v>-0.2845013842505723</v>
-      </c>
-      <c r="H45">
-        <v>-0.5045789468551448</v>
-      </c>
-      <c r="I45">
-        <v>-0.3655650551191031</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.5709664978720881</v>
-      </c>
-      <c r="C46">
-        <v>0.5772132160578176</v>
-      </c>
-      <c r="D46">
-        <v>-0.09277062793966739</v>
-      </c>
-      <c r="E46">
-        <v>-0.3739714167708386</v>
-      </c>
-      <c r="F46">
-        <v>-0.5131434932103034</v>
-      </c>
-      <c r="G46">
-        <v>-0.733221055814876</v>
-      </c>
-      <c r="H46">
-        <v>-0.5942071640788342</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.6742151266834819</v>
-      </c>
-      <c r="C47">
-        <v>0.004231282685996929</v>
-      </c>
-      <c r="D47">
-        <v>-0.2769695061451743</v>
-      </c>
-      <c r="E47">
-        <v>-0.4161415825846391</v>
-      </c>
-      <c r="F47">
-        <v>-0.6362191451892116</v>
-      </c>
-      <c r="G47">
-        <v>-0.4972052534531699</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.2471364659553615</v>
-      </c>
-      <c r="C48">
-        <v>-0.03406432287580974</v>
-      </c>
-      <c r="D48">
-        <v>-0.1732363993152745</v>
-      </c>
-      <c r="E48">
-        <v>-0.3933139619198471</v>
-      </c>
-      <c r="F48">
-        <v>-0.2543000701838053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.7116303359412484</v>
-      </c>
-      <c r="C49">
-        <v>-0.8508024123807132</v>
-      </c>
-      <c r="D49">
-        <v>-1.070879974985286</v>
-      </c>
-      <c r="E49">
-        <v>-0.931866083249244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.5776468104600809</v>
-      </c>
-      <c r="C50">
-        <v>-0.7977243730646535</v>
-      </c>
-      <c r="D50">
-        <v>-0.6587104813286118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.5891525641787865</v>
-      </c>
-      <c r="C51">
-        <v>-0.4501386724427447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.04484482445227361</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.507470539621765</v>
+        <v>1.892473715781749</v>
       </c>
       <c r="C2">
-        <v>-3.516014381112426</v>
+        <v>0.1219783862554223</v>
       </c>
       <c r="D2">
-        <v>4.369694674272838</v>
+        <v>0.1222121999660957</v>
       </c>
       <c r="E2">
-        <v>0.6939559148089827</v>
+        <v>0.1651595478180369</v>
       </c>
       <c r="F2">
-        <v>2.245115615686275</v>
+        <v>0.1644195437654631</v>
       </c>
       <c r="G2">
-        <v>3.562121767586874</v>
+        <v>0.227800997759617</v>
       </c>
       <c r="H2">
-        <v>-0.2779421548499234</v>
+        <v>0.116647907406248</v>
       </c>
       <c r="I2">
-        <v>-0.5140068859829644</v>
+        <v>0.2054458794775812</v>
       </c>
       <c r="J2">
-        <v>1.927290893162394</v>
+        <v>0.2495631083826751</v>
       </c>
       <c r="K2">
-        <v>4.794981200793716</v>
+        <v>0.9976896108432257</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4.437842726417154</v>
+        <v>0.1903602521104121</v>
       </c>
       <c r="C3">
-        <v>0.7621039669532992</v>
+        <v>0.2333075999623533</v>
       </c>
       <c r="D3">
-        <v>2.313263667830592</v>
+        <v>0.2325675959097795</v>
       </c>
       <c r="E3">
-        <v>3.630269819731191</v>
+        <v>0.2959490499039334</v>
       </c>
       <c r="F3">
-        <v>-0.2097941027056069</v>
+        <v>0.1847959595505644</v>
       </c>
       <c r="G3">
-        <v>-0.445858833838648</v>
+        <v>0.2735939316218976</v>
       </c>
       <c r="H3">
-        <v>1.995438945306711</v>
+        <v>0.3177111605269916</v>
       </c>
       <c r="I3">
-        <v>4.863129252938032</v>
+        <v>1.065837662987542</v>
       </c>
       <c r="J3">
-        <v>-5.812990831407822</v>
+        <v>0.6091731032956689</v>
       </c>
       <c r="K3">
-        <v>1.460561055969643</v>
+        <v>0.5213474874929547</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2.459222743677232</v>
+        <v>0.3785266717564195</v>
       </c>
       <c r="C4">
-        <v>3.776228895577831</v>
+        <v>0.4419081257505735</v>
       </c>
       <c r="D4">
-        <v>-0.06383502685896691</v>
+        <v>0.3307550353972044</v>
       </c>
       <c r="E4">
-        <v>-0.299899757992008</v>
+        <v>0.4195530074685376</v>
       </c>
       <c r="F4">
-        <v>2.141398021153351</v>
+        <v>0.4636702363736316</v>
       </c>
       <c r="G4">
-        <v>5.009088328784672</v>
+        <v>1.211796738834182</v>
       </c>
       <c r="H4">
-        <v>-5.667031755561182</v>
+        <v>0.7551321791423089</v>
       </c>
       <c r="I4">
-        <v>1.606520131816283</v>
+        <v>0.6673065633395947</v>
       </c>
       <c r="J4">
-        <v>3.777068983080938</v>
+        <v>0.6666943429292769</v>
       </c>
       <c r="K4">
-        <v>-5.004246340218826</v>
+        <v>1.382856310437405</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.516167770926802</v>
+        <v>-1.121577708670631</v>
       </c>
       <c r="C5">
-        <v>-1.752232502059843</v>
+        <v>-1.032779736599298</v>
       </c>
       <c r="D5">
-        <v>0.6890652770855155</v>
+        <v>-0.9886625076942039</v>
       </c>
       <c r="E5">
-        <v>3.556755584716836</v>
+        <v>-0.2405360052336534</v>
       </c>
       <c r="F5">
-        <v>-7.119364499629017</v>
+        <v>-0.6972005649255266</v>
       </c>
       <c r="G5">
-        <v>0.1541873877484476</v>
+        <v>-0.7850261807282408</v>
       </c>
       <c r="H5">
-        <v>2.324736239013102</v>
+        <v>-0.7856384011385587</v>
       </c>
       <c r="I5">
-        <v>-6.456579084286661</v>
+        <v>-0.06947643363043041</v>
       </c>
       <c r="J5">
-        <v>0.1087520567958193</v>
+        <v>0.5261945607869734</v>
       </c>
       <c r="K5">
-        <v>0.4037777743409065</v>
+        <v>0.7962521034912815</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.9635364668865735</v>
+        <v>-0.7141913178931459</v>
       </c>
       <c r="C6">
-        <v>3.831226774517894</v>
+        <v>0.03393518456740461</v>
       </c>
       <c r="D6">
-        <v>-6.84489330982796</v>
+        <v>-0.4227293751244686</v>
       </c>
       <c r="E6">
-        <v>0.4286585775495056</v>
+        <v>-0.5105549909271828</v>
       </c>
       <c r="F6">
-        <v>2.59920742881416</v>
+        <v>-0.5111672113375006</v>
       </c>
       <c r="G6">
-        <v>-6.182107894485603</v>
+        <v>0.2049947561706276</v>
       </c>
       <c r="H6">
-        <v>0.3832232465968773</v>
+        <v>0.8006657505880314</v>
       </c>
       <c r="I6">
-        <v>0.6782489641419646</v>
+        <v>1.070723293292339</v>
       </c>
       <c r="J6">
-        <v>-1.892337393779635</v>
+        <v>0.9200794999688996</v>
       </c>
       <c r="K6">
-        <v>1.355152977622061</v>
+        <v>-1.296224542013938</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-7.028190221128893</v>
+        <v>-0.6060262864254029</v>
       </c>
       <c r="C7">
-        <v>0.2453616662485714</v>
+        <v>-0.6938519022281171</v>
       </c>
       <c r="D7">
-        <v>2.415910517513226</v>
+        <v>-0.6944641226384349</v>
       </c>
       <c r="E7">
-        <v>-6.365404805786537</v>
+        <v>0.02169784486969339</v>
       </c>
       <c r="F7">
-        <v>0.1999263352959431</v>
+        <v>0.6173688392870971</v>
       </c>
       <c r="G7">
-        <v>0.4949520528410303</v>
+        <v>0.8874263819914052</v>
       </c>
       <c r="H7">
-        <v>-2.075634305080569</v>
+        <v>0.7367825886679653</v>
       </c>
       <c r="I7">
-        <v>1.171856066321127</v>
+        <v>-1.479521453314873</v>
       </c>
       <c r="J7">
-        <v>0.9082586945831972</v>
+        <v>-1.322720871369724</v>
       </c>
       <c r="K7">
-        <v>-1.702262283109177</v>
+        <v>-0.932963946551324</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.560824549983958</v>
+        <v>-0.5495500901677033</v>
       </c>
       <c r="C8">
-        <v>-6.220490773315806</v>
+        <v>0.166611877340425</v>
       </c>
       <c r="D8">
-        <v>0.3448403677666746</v>
+        <v>0.7622828717578287</v>
       </c>
       <c r="E8">
-        <v>0.6398660853117619</v>
+        <v>1.032340414462137</v>
       </c>
       <c r="F8">
-        <v>-1.930720272609837</v>
+        <v>0.881696621138697</v>
       </c>
       <c r="G8">
-        <v>1.316770098791859</v>
+        <v>-1.334607420844141</v>
       </c>
       <c r="H8">
-        <v>1.053172727053929</v>
+        <v>-1.177806838898992</v>
       </c>
       <c r="I8">
-        <v>-1.557348250638445</v>
+        <v>-0.7880499140805923</v>
       </c>
       <c r="J8">
-        <v>0.7036818179999742</v>
+        <v>-0.6717761394626833</v>
       </c>
       <c r="K8">
-        <v>2.057818761722369</v>
+        <v>-0.5028075317023351</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.16375986668335</v>
+        <v>1.581202370674504</v>
       </c>
       <c r="C9">
-        <v>1.458785584228437</v>
+        <v>1.851259913378812</v>
       </c>
       <c r="D9">
-        <v>-1.111800773693162</v>
+        <v>1.700616120055372</v>
       </c>
       <c r="E9">
-        <v>2.135689597708534</v>
+        <v>-0.5156879219274659</v>
       </c>
       <c r="F9">
-        <v>1.872092225970604</v>
+        <v>-0.3588873399823171</v>
       </c>
       <c r="G9">
-        <v>-0.73842875172177</v>
+        <v>0.03086958483608271</v>
       </c>
       <c r="H9">
-        <v>1.522601316916649</v>
+        <v>0.1471433594539917</v>
       </c>
       <c r="I9">
-        <v>2.876738260639044</v>
+        <v>0.31611196721434</v>
       </c>
       <c r="J9">
-        <v>-1.121800249328544</v>
+        <v>0.2465383335157298</v>
       </c>
       <c r="K9">
-        <v>-1.568331859012645</v>
+        <v>0.2233688178375104</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1.156019244017697</v>
+        <v>1.656397649730837</v>
       </c>
       <c r="C10">
-        <v>2.091471127384</v>
+        <v>-0.5599063922520005</v>
       </c>
       <c r="D10">
-        <v>1.827873755646069</v>
+        <v>-0.4031058103068517</v>
       </c>
       <c r="E10">
-        <v>-0.7826472220463045</v>
+        <v>-0.01334888548845181</v>
       </c>
       <c r="F10">
-        <v>1.478382846592115</v>
+        <v>0.1029248891294572</v>
       </c>
       <c r="G10">
-        <v>2.832519790314509</v>
+        <v>0.2718934968898055</v>
       </c>
       <c r="H10">
-        <v>-1.166018719653078</v>
+        <v>0.2023198631911953</v>
       </c>
       <c r="I10">
-        <v>-1.61255032933718</v>
+        <v>0.1791503475129759</v>
       </c>
       <c r="J10">
-        <v>0.5495046226940759</v>
+        <v>0.1790595538035575</v>
       </c>
       <c r="K10">
-        <v>-2.89593333490856</v>
+        <v>0.3555877477540605</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1.84265310766989</v>
+        <v>-0.3883264582830307</v>
       </c>
       <c r="C11">
-        <v>-0.7678678700224836</v>
+        <v>0.001430466535369157</v>
       </c>
       <c r="D11">
-        <v>1.493162198615936</v>
+        <v>0.1177042411532782</v>
       </c>
       <c r="E11">
-        <v>2.84729914233833</v>
+        <v>0.2866728489136264</v>
       </c>
       <c r="F11">
-        <v>-1.151239367629258</v>
+        <v>0.2170992152150163</v>
       </c>
       <c r="G11">
-        <v>-1.597770977313359</v>
+        <v>0.1939296995367968</v>
       </c>
       <c r="H11">
-        <v>0.5642839747178968</v>
+        <v>0.1938389058273785</v>
       </c>
       <c r="I11">
-        <v>-2.881153982884739</v>
+        <v>0.3703670997778815</v>
       </c>
       <c r="J11">
-        <v>4.654218452100936</v>
+        <v>0.1883734374377483</v>
       </c>
       <c r="K11">
-        <v>1.107670388511424</v>
+        <v>0.1309379255469892</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.812464305648436</v>
+        <v>0.4370063481857787</v>
       </c>
       <c r="C12">
-        <v>3.166601249370831</v>
+        <v>0.6059749559461269</v>
       </c>
       <c r="D12">
-        <v>-0.831937260596757</v>
+        <v>0.5364013222475168</v>
       </c>
       <c r="E12">
-        <v>-1.278468870280858</v>
+        <v>0.5132318065692973</v>
       </c>
       <c r="F12">
-        <v>0.8835860817503973</v>
+        <v>0.513141012859879</v>
       </c>
       <c r="G12">
-        <v>-2.561851875852238</v>
+        <v>0.689669206810382</v>
       </c>
       <c r="H12">
-        <v>4.973520559133437</v>
+        <v>0.5076755444702488</v>
       </c>
       <c r="I12">
-        <v>1.426972495543925</v>
+        <v>0.4502400325794897</v>
       </c>
       <c r="J12">
-        <v>-0.2467896997245982</v>
+        <v>0.4500214634402115</v>
       </c>
       <c r="K12">
-        <v>-0.621031966965472</v>
+        <v>0.1925805878694322</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1.872154806229207</v>
+        <v>-0.5038162233849335</v>
       </c>
       <c r="C13">
-        <v>-2.318686415913308</v>
+        <v>-0.5269857390631529</v>
       </c>
       <c r="D13">
-        <v>-0.1566314638820529</v>
+        <v>-0.5270765327725713</v>
       </c>
       <c r="E13">
-        <v>-3.602069421484688</v>
+        <v>-0.3505483388220682</v>
       </c>
       <c r="F13">
-        <v>3.933303013500987</v>
+        <v>-0.5325420011622015</v>
       </c>
       <c r="G13">
-        <v>0.3867549499114745</v>
+        <v>-0.5899775130529605</v>
       </c>
       <c r="H13">
-        <v>-1.287007245357048</v>
+        <v>-0.5901960821922387</v>
       </c>
       <c r="I13">
-        <v>-1.661249512597922</v>
+        <v>-0.8476369577630181</v>
       </c>
       <c r="J13">
-        <v>1.339880579267825</v>
+        <v>-0.8781288570719454</v>
       </c>
       <c r="K13">
-        <v>0.3637186274690521</v>
+        <v>-0.9213729249179494</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1544046500645492</v>
+        <v>-0.5248497189550675</v>
       </c>
       <c r="C14">
-        <v>-3.599842607667185</v>
+        <v>-0.3483215250045645</v>
       </c>
       <c r="D14">
-        <v>3.93552982731849</v>
+        <v>-0.5303151873446977</v>
       </c>
       <c r="E14">
-        <v>0.3889817637289782</v>
+        <v>-0.5877506992354568</v>
       </c>
       <c r="F14">
-        <v>-1.284780431539545</v>
+        <v>-0.587969268374735</v>
       </c>
       <c r="G14">
-        <v>-1.659022698780418</v>
+        <v>-0.8454101439455143</v>
       </c>
       <c r="H14">
-        <v>1.342107393085328</v>
+        <v>-0.8759020432544417</v>
       </c>
       <c r="I14">
-        <v>0.3659454412865558</v>
+        <v>-0.9191461111004456</v>
       </c>
       <c r="J14">
-        <v>-1.929023998798797</v>
+        <v>-0.9192005223421801</v>
       </c>
       <c r="K14">
-        <v>-2.284517558962435</v>
+        <v>-0.2966513207244076</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4.465940678693944</v>
+        <v>9.566403075489394E-05</v>
       </c>
       <c r="C15">
-        <v>0.9193926151044308</v>
+        <v>-0.05733984786000412</v>
       </c>
       <c r="D15">
-        <v>-0.7543695801640921</v>
+        <v>-0.05755841699928232</v>
       </c>
       <c r="E15">
-        <v>-1.128611847404966</v>
+        <v>-0.3149992925700617</v>
       </c>
       <c r="F15">
-        <v>1.872518244460781</v>
+        <v>-0.345491191878989</v>
       </c>
       <c r="G15">
-        <v>0.8963562926620084</v>
+        <v>-0.388735259724993</v>
       </c>
       <c r="H15">
-        <v>-1.398613147423345</v>
+        <v>-0.3887896709667275</v>
       </c>
       <c r="I15">
-        <v>-1.754106707586982</v>
+        <v>0.233759530651045</v>
       </c>
       <c r="J15">
-        <v>2.478563951183577</v>
+        <v>0.0648367192629592</v>
       </c>
       <c r="K15">
-        <v>0.2922238094781761</v>
+        <v>-0.04630355562141808</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1.074845095544248</v>
+        <v>-0.3780339323794379</v>
       </c>
       <c r="C16">
-        <v>-1.449087362785122</v>
+        <v>-0.6354748079502173</v>
       </c>
       <c r="D16">
-        <v>1.552042729080625</v>
+        <v>-0.6659667072591446</v>
       </c>
       <c r="E16">
-        <v>0.5758807772818528</v>
+        <v>-0.7092107751051486</v>
       </c>
       <c r="F16">
-        <v>-1.7190886628035</v>
+        <v>-0.7092651863468831</v>
       </c>
       <c r="G16">
-        <v>-2.074582222967138</v>
+        <v>-0.08671598472911057</v>
       </c>
       <c r="H16">
-        <v>2.158088435803421</v>
+        <v>-0.2556387961171964</v>
       </c>
       <c r="I16">
-        <v>-0.02825170590197956</v>
+        <v>-0.3667790710015737</v>
       </c>
       <c r="J16">
-        <v>-0.5729825583898389</v>
+        <v>-0.3700143163867153</v>
       </c>
       <c r="K16">
-        <v>-2.049374377194824</v>
+        <v>-0.3765914745778787</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.738370468417131</v>
+        <v>-0.4796389679226394</v>
       </c>
       <c r="C17">
-        <v>0.7622085166183581</v>
+        <v>-0.5228830357686434</v>
       </c>
       <c r="D17">
-        <v>-1.532760923466995</v>
+        <v>-0.5229374470103778</v>
       </c>
       <c r="E17">
-        <v>-1.888254483630632</v>
+        <v>0.09961175460739469</v>
       </c>
       <c r="F17">
-        <v>2.344416175139926</v>
+        <v>-0.06931105678069116</v>
       </c>
       <c r="G17">
-        <v>0.1580760334345257</v>
+        <v>-0.1804513316650684</v>
       </c>
       <c r="H17">
-        <v>-0.3866548190533337</v>
+        <v>-0.1836865770502101</v>
       </c>
       <c r="I17">
-        <v>-1.863046637858318</v>
+        <v>-0.1902637352413734</v>
       </c>
       <c r="J17">
-        <v>-0.05777432076874334</v>
+        <v>-0.1910002036912744</v>
       </c>
       <c r="K17">
-        <v>0.8691240358678698</v>
+        <v>-0.2303648574803816</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1.317031573067078</v>
+        <v>-0.3072080966104608</v>
       </c>
       <c r="C18">
-        <v>-1.672525133230715</v>
+        <v>0.3153411050073117</v>
       </c>
       <c r="D18">
-        <v>2.560145525539844</v>
+        <v>0.1464182936192259</v>
       </c>
       <c r="E18">
-        <v>0.3738053838344427</v>
+        <v>0.03527801873484859</v>
       </c>
       <c r="F18">
-        <v>-0.1709254686534166</v>
+        <v>0.03204277334970695</v>
       </c>
       <c r="G18">
-        <v>-1.647317287458401</v>
+        <v>0.02546561515854362</v>
       </c>
       <c r="H18">
-        <v>0.1579550296311737</v>
+        <v>0.02472914670864268</v>
       </c>
       <c r="I18">
-        <v>1.084853386267787</v>
+        <v>-0.01463550708046457</v>
       </c>
       <c r="J18">
-        <v>1.010188595107371</v>
+        <v>-0.01494193468514882</v>
       </c>
       <c r="K18">
-        <v>-1.419234774058134</v>
+        <v>0.008051626903485931</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2.444317464058152</v>
+        <v>0.0305902321375342</v>
       </c>
       <c r="C19">
-        <v>0.2579773223527511</v>
+        <v>-0.08055004274684308</v>
       </c>
       <c r="D19">
-        <v>-0.2867535301351083</v>
+        <v>-0.08378528813198471</v>
       </c>
       <c r="E19">
-        <v>-1.763145348940093</v>
+        <v>-0.09036244632314805</v>
       </c>
       <c r="F19">
-        <v>0.04212696814948202</v>
+        <v>-0.09109891477304899</v>
       </c>
       <c r="G19">
-        <v>0.9690253247860952</v>
+        <v>-0.1304635685621562</v>
       </c>
       <c r="H19">
-        <v>0.8943605336256795</v>
+        <v>-0.1307699961668405</v>
       </c>
       <c r="I19">
-        <v>-1.535062835539826</v>
+        <v>-0.1077764345782057</v>
       </c>
       <c r="J19">
-        <v>-0.07211974765800022</v>
+        <v>-0.1081069259754415</v>
       </c>
       <c r="K19">
-        <v>-0.362968985056385</v>
+        <v>-0.1201146892980987</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.9798105310130382</v>
+        <v>-0.7768422890099146</v>
       </c>
       <c r="C20">
-        <v>-2.456202349818023</v>
+        <v>-0.7834194472010779</v>
       </c>
       <c r="D20">
-        <v>-0.6509300327284478</v>
+        <v>-0.7841559156509789</v>
       </c>
       <c r="E20">
-        <v>0.2759683239081653</v>
+        <v>-0.8235205694400861</v>
       </c>
       <c r="F20">
-        <v>0.2013035327477496</v>
+        <v>-0.8238269970447704</v>
       </c>
       <c r="G20">
-        <v>-2.228119836417756</v>
+        <v>-0.8008334354561356</v>
       </c>
       <c r="H20">
-        <v>-0.7651767485359301</v>
+        <v>-0.8011639268533713</v>
       </c>
       <c r="I20">
-        <v>-1.056025985934315</v>
+        <v>-0.8131716901760285</v>
       </c>
       <c r="J20">
-        <v>-1.440349059881592</v>
+        <v>-0.8135545968808572</v>
       </c>
       <c r="K20">
-        <v>-2.056025985934315</v>
+        <v>-0.7617576957723543</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.08158839567789467</v>
+        <v>-0.05163748724463635</v>
       </c>
       <c r="C21">
-        <v>1.008486752314508</v>
+        <v>-0.0910021410337436</v>
       </c>
       <c r="D21">
-        <v>0.9338219611540921</v>
+        <v>-0.09130856863842784</v>
       </c>
       <c r="E21">
-        <v>-1.495601408011414</v>
+        <v>-0.0683150070497931</v>
       </c>
       <c r="F21">
-        <v>-0.03265832012958758</v>
+        <v>-0.06864549844702883</v>
       </c>
       <c r="G21">
-        <v>-0.3235075575279723</v>
+        <v>-0.08065326176968601</v>
       </c>
       <c r="H21">
-        <v>-0.7078306314752494</v>
+        <v>-0.08103616847451467</v>
       </c>
       <c r="I21">
-        <v>-1.323507557527972</v>
+        <v>-0.02923926736601179</v>
       </c>
       <c r="J21">
-        <v>1.602907188952554</v>
+        <v>-0.01162490744660549</v>
       </c>
       <c r="K21">
-        <v>-0.5964879289583422</v>
+        <v>0.01249762676661414</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.9727922814063732</v>
+        <v>-0.05233824838614676</v>
       </c>
       <c r="C22">
-        <v>-1.456631087759132</v>
+        <v>-0.02934468679751201</v>
       </c>
       <c r="D22">
-        <v>0.006312000122693506</v>
+        <v>-0.02967517819474774</v>
       </c>
       <c r="E22">
-        <v>-0.2845372372756912</v>
+        <v>-0.04168294151740493</v>
       </c>
       <c r="F22">
-        <v>-0.6688603112229683</v>
+        <v>-0.04206584822223358</v>
       </c>
       <c r="G22">
-        <v>-1.284537237275691</v>
+        <v>0.009731052886269298</v>
       </c>
       <c r="H22">
-        <v>1.641877509204835</v>
+        <v>0.0273454128056756</v>
       </c>
       <c r="I22">
-        <v>-0.5575176087060612</v>
+        <v>0.05146794701889523</v>
       </c>
       <c r="J22">
-        <v>0.01501271136055782</v>
+        <v>0.05094060496265063</v>
       </c>
       <c r="K22">
-        <v>-3.484537237275691</v>
+        <v>0.02309084191670085</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1.439436355154955</v>
+        <v>-0.01214995419333464</v>
       </c>
       <c r="C23">
-        <v>0.02350673272687087</v>
+        <v>-0.01248044559057038</v>
       </c>
       <c r="D23">
-        <v>-0.2673425046715139</v>
+        <v>-0.02448820891322756</v>
       </c>
       <c r="E23">
-        <v>-0.6516655786187909</v>
+        <v>-0.02487111561805622</v>
       </c>
       <c r="F23">
-        <v>-1.267342504671514</v>
+        <v>0.02692578549044666</v>
       </c>
       <c r="G23">
-        <v>1.659072241809012</v>
+        <v>0.04454014540985296</v>
       </c>
       <c r="H23">
-        <v>-0.5403228761018838</v>
+        <v>0.0686626796230726</v>
       </c>
       <c r="I23">
-        <v>0.03220744396473518</v>
+        <v>0.06813533756682799</v>
       </c>
       <c r="J23">
-        <v>-3.467342504671513</v>
+        <v>0.04028557452087822</v>
       </c>
       <c r="K23">
-        <v>4.854790911754233</v>
+        <v>0.04049394406685136</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2732007535572819</v>
+        <v>0.2372135752398407</v>
       </c>
       <c r="C24">
-        <v>-0.01764848384110285</v>
+        <v>0.2252058119171835</v>
       </c>
       <c r="D24">
-        <v>-0.4019715577883799</v>
+        <v>0.2248229052123548</v>
       </c>
       <c r="E24">
-        <v>-1.017648483841103</v>
+        <v>0.2766198063208577</v>
       </c>
       <c r="F24">
-        <v>1.908766262639423</v>
+        <v>0.294234166240264</v>
       </c>
       <c r="G24">
-        <v>-0.2906288552714728</v>
+        <v>0.3183567004534836</v>
       </c>
       <c r="H24">
-        <v>0.2819014647951462</v>
+        <v>0.317829358397239</v>
       </c>
       <c r="I24">
-        <v>-3.217648483841102</v>
+        <v>0.2899795953512893</v>
       </c>
       <c r="J24">
-        <v>5.104484932584644</v>
+        <v>0.2901879648972624</v>
       </c>
       <c r="K24">
-        <v>1.276535161535441</v>
+        <v>0.2897816676142838</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.2090483508783578</v>
+        <v>0.0338059448799285</v>
       </c>
       <c r="C25">
-        <v>-0.5933714248256349</v>
+        <v>0.03342303817509984</v>
       </c>
       <c r="D25">
-        <v>-1.209048350878358</v>
+        <v>0.08521993928360272</v>
       </c>
       <c r="E25">
-        <v>1.717366395602168</v>
+        <v>0.102834299203009</v>
       </c>
       <c r="F25">
-        <v>-0.4820287223087277</v>
+        <v>0.1269568334162287</v>
       </c>
       <c r="G25">
-        <v>0.09050159775789124</v>
+        <v>0.126429491359984</v>
       </c>
       <c r="H25">
-        <v>-3.409048350878357</v>
+        <v>0.09857972831403428</v>
       </c>
       <c r="I25">
-        <v>4.913085065547389</v>
+        <v>0.09878809786000742</v>
       </c>
       <c r="J25">
-        <v>1.085135294498186</v>
+        <v>0.09838180057702883</v>
       </c>
       <c r="K25">
-        <v>-0.189207359611801</v>
+        <v>0.0979759702749291</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.6829075333208198</v>
+        <v>-0.05611307032008506</v>
       </c>
       <c r="C26">
-        <v>-1.298584459373543</v>
+        <v>-0.004316169211582177</v>
       </c>
       <c r="D26">
-        <v>1.627830287106983</v>
+        <v>0.01329819070782412</v>
       </c>
       <c r="E26">
-        <v>-0.5715648308039126</v>
+        <v>0.03742072492104376</v>
       </c>
       <c r="F26">
-        <v>0.0009654892627063427</v>
+        <v>0.03689338286479915</v>
       </c>
       <c r="G26">
-        <v>-3.498584459373542</v>
+        <v>0.00904361981884938</v>
       </c>
       <c r="H26">
-        <v>4.823548957052205</v>
+        <v>0.009251989364822522</v>
       </c>
       <c r="I26">
-        <v>0.9955991860030007</v>
+        <v>0.008845692081843937</v>
       </c>
       <c r="J26">
-        <v>-0.2787434681069859</v>
+        <v>0.008439861779744207</v>
       </c>
       <c r="K26">
-        <v>4.23058541253523</v>
+        <v>0.28054866227482</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1.127323948751656</v>
+        <v>0.1669443414103042</v>
       </c>
       <c r="C27">
-        <v>1.79909079772887</v>
+        <v>0.1845587013297105</v>
       </c>
       <c r="D27">
-        <v>-0.4003043201820262</v>
+        <v>0.2086812355429302</v>
       </c>
       <c r="E27">
-        <v>0.1722259998845928</v>
+        <v>0.2081538934866856</v>
       </c>
       <c r="F27">
-        <v>-3.327323948751656</v>
+        <v>0.1803041304407358</v>
       </c>
       <c r="G27">
-        <v>4.994809467674092</v>
+        <v>0.1805124999867089</v>
       </c>
       <c r="H27">
-        <v>1.166859696624887</v>
+        <v>0.1801062027037303</v>
       </c>
       <c r="I27">
-        <v>-0.1074829574850995</v>
+        <v>0.1797003724016306</v>
       </c>
       <c r="J27">
-        <v>4.401845923157116</v>
+        <v>0.4518091728967064</v>
       </c>
       <c r="K27">
-        <v>0.08473484147605315</v>
+        <v>0.4515807425543883</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1.984331693222401</v>
+        <v>0.3697995968232419</v>
       </c>
       <c r="C28">
-        <v>-0.2150634246884948</v>
+        <v>0.3939221310364616</v>
       </c>
       <c r="D28">
-        <v>0.3574668953781241</v>
+        <v>0.393394788980217</v>
       </c>
       <c r="E28">
-        <v>-3.142083053258125</v>
+        <v>0.3655450259342672</v>
       </c>
       <c r="F28">
-        <v>5.180050363167623</v>
+        <v>0.3657533954802403</v>
       </c>
       <c r="G28">
-        <v>1.352100592118418</v>
+        <v>0.3653470981972617</v>
       </c>
       <c r="H28">
-        <v>0.07775793800843189</v>
+        <v>0.364941267895162</v>
       </c>
       <c r="I28">
-        <v>4.587086818650647</v>
+        <v>0.6370500683902378</v>
       </c>
       <c r="J28">
-        <v>0.2699757369695845</v>
+        <v>0.6368216380479197</v>
       </c>
       <c r="K28">
-        <v>-0.1376744669604189</v>
+        <v>0.636704788396429</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.3274955710537085</v>
+        <v>0.2814899846712479</v>
       </c>
       <c r="C29">
-        <v>0.2450347490129104</v>
+        <v>0.2809626426150033</v>
       </c>
       <c r="D29">
-        <v>-3.254515199623338</v>
+        <v>0.2531128795690535</v>
       </c>
       <c r="E29">
-        <v>5.067618216802409</v>
+        <v>0.2533212491150266</v>
       </c>
       <c r="F29">
-        <v>1.239668445753205</v>
+        <v>0.252914951832048</v>
       </c>
       <c r="G29">
-        <v>-0.03467420835678181</v>
+        <v>0.2525091215299483</v>
       </c>
       <c r="H29">
-        <v>4.474654672285434</v>
+        <v>0.5246179220250241</v>
       </c>
       <c r="I29">
-        <v>0.1575435906043708</v>
+        <v>0.524389491682706</v>
       </c>
       <c r="J29">
-        <v>-0.2501066133256326</v>
+        <v>0.5242726420312154</v>
       </c>
       <c r="K29">
-        <v>0.5079029909095796</v>
+        <v>0.5241558963052256</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.07078737373696242</v>
+        <v>0.1067152673390552</v>
       </c>
       <c r="C30">
-        <v>-3.428762574899286</v>
+        <v>0.07886550429310546</v>
       </c>
       <c r="D30">
-        <v>4.893370841526461</v>
+        <v>0.0790738738390786</v>
       </c>
       <c r="E30">
-        <v>1.065421070477257</v>
+        <v>0.07866757655610002</v>
       </c>
       <c r="F30">
-        <v>-0.2089215836327298</v>
+        <v>0.07826174625400029</v>
       </c>
       <c r="G30">
-        <v>4.300407297009485</v>
+        <v>0.3503705467490761</v>
       </c>
       <c r="H30">
-        <v>-0.01670378467157718</v>
+        <v>0.350142116406758</v>
       </c>
       <c r="I30">
-        <v>-0.4243539886015806</v>
+        <v>0.3500252667552673</v>
       </c>
       <c r="J30">
-        <v>0.3336556156336315</v>
+        <v>0.3499085210292776</v>
       </c>
       <c r="K30">
-        <v>-1.436536453782339</v>
+        <v>0.1058497751623264</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-3.468652989189257</v>
+        <v>0.03897509000313448</v>
       </c>
       <c r="C31">
-        <v>4.85348042723649</v>
+        <v>0.03918345954910762</v>
       </c>
       <c r="D31">
-        <v>1.025530656187286</v>
+        <v>0.03877716226612904</v>
       </c>
       <c r="E31">
-        <v>-0.2488119979227008</v>
+        <v>0.03837133196402931</v>
       </c>
       <c r="F31">
-        <v>4.260516882719514</v>
+        <v>0.3104801324591051</v>
       </c>
       <c r="G31">
-        <v>-0.05659419896154816</v>
+        <v>0.310251702116787</v>
       </c>
       <c r="H31">
-        <v>-0.4642444028915516</v>
+        <v>0.3101348524652963</v>
       </c>
       <c r="I31">
-        <v>0.2937652013436605</v>
+        <v>0.3100181067393066</v>
       </c>
       <c r="J31">
-        <v>-1.47642686807231</v>
+        <v>0.06595936087235543</v>
       </c>
       <c r="K31">
-        <v>2.227624414448982</v>
+        <v>0.06544298022123485</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>5.237305402390602</v>
+        <v>0.4230084347032192</v>
       </c>
       <c r="C32">
-        <v>1.409355631341397</v>
+        <v>0.4226021374202407</v>
       </c>
       <c r="D32">
-        <v>0.1350129772314108</v>
+        <v>0.4221963071181409</v>
       </c>
       <c r="E32">
-        <v>4.644341857873626</v>
+        <v>0.6943051076132167</v>
       </c>
       <c r="F32">
-        <v>0.3272307761925635</v>
+        <v>0.6940766772708986</v>
       </c>
       <c r="G32">
-        <v>-0.08041942773743993</v>
+        <v>0.6939598276194079</v>
       </c>
       <c r="H32">
-        <v>0.6775901764977721</v>
+        <v>0.6938430818934183</v>
       </c>
       <c r="I32">
-        <v>-1.092601892918198</v>
+        <v>0.4497843360264671</v>
       </c>
       <c r="J32">
-        <v>2.611449389603094</v>
+        <v>0.4492679553753465</v>
       </c>
       <c r="K32">
-        <v>1.258167834173163</v>
+        <v>0.4490636805093107</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.9922491775964202</v>
+        <v>0.005495683675263541</v>
       </c>
       <c r="C33">
-        <v>-0.2820934765135663</v>
+        <v>0.005089853373163811</v>
       </c>
       <c r="D33">
-        <v>4.227235404128649</v>
+        <v>0.2771986538682396</v>
       </c>
       <c r="E33">
-        <v>-0.08987567755241366</v>
+        <v>0.2769702235259215</v>
       </c>
       <c r="F33">
-        <v>-0.4975258814824171</v>
+        <v>0.2768533738744308</v>
       </c>
       <c r="G33">
-        <v>0.260483722752795</v>
+        <v>0.2767366281484411</v>
       </c>
       <c r="H33">
-        <v>-1.509708346663175</v>
+        <v>0.03267788228148993</v>
       </c>
       <c r="I33">
-        <v>2.194342935858117</v>
+        <v>0.03216150163036935</v>
       </c>
       <c r="J33">
-        <v>0.8410613804281863</v>
+        <v>0.03195722676433355</v>
       </c>
       <c r="K33">
-        <v>1.099034712698199</v>
+        <v>0.03175269499935474</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.494375241790765</v>
+        <v>-0.2071919119040349</v>
       </c>
       <c r="C34">
-        <v>4.01495363885145</v>
+        <v>0.06491688859104089</v>
       </c>
       <c r="D34">
-        <v>-0.3021574428296124</v>
+        <v>0.06468845824872277</v>
       </c>
       <c r="E34">
-        <v>-0.7098076467596157</v>
+        <v>0.0645716085972321</v>
       </c>
       <c r="F34">
-        <v>0.0482019574755963</v>
+        <v>0.06445486287124241</v>
       </c>
       <c r="G34">
-        <v>-1.721990111940374</v>
+        <v>-0.1796038829957088</v>
       </c>
       <c r="H34">
-        <v>1.982061170580918</v>
+        <v>-0.1801202636468294</v>
       </c>
       <c r="I34">
-        <v>0.6287796151509876</v>
+        <v>-0.1803245385128652</v>
       </c>
       <c r="J34">
-        <v>0.8867529474209999</v>
+        <v>-0.180529070277844</v>
       </c>
       <c r="K34">
-        <v>-0.2541327818563862</v>
+        <v>-0.03698795212568673</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>3.667562782763162</v>
+        <v>-0.2824739674972466</v>
       </c>
       <c r="C35">
-        <v>-0.6495482989178999</v>
+        <v>-0.2827023978395647</v>
       </c>
       <c r="D35">
-        <v>-1.057198502847903</v>
+        <v>-0.2828192474910554</v>
       </c>
       <c r="E35">
-        <v>-0.2991888986126912</v>
+        <v>-0.2829359932170451</v>
       </c>
       <c r="F35">
-        <v>-2.069380968028661</v>
+        <v>-0.5269947390839963</v>
       </c>
       <c r="G35">
-        <v>1.63467031449263</v>
+        <v>-0.5275111197351169</v>
       </c>
       <c r="H35">
-        <v>0.2813887590627001</v>
+        <v>-0.5277153946011527</v>
       </c>
       <c r="I35">
-        <v>0.5393620913327123</v>
+        <v>-0.5279199263661315</v>
       </c>
       <c r="J35">
-        <v>-0.6015236379446737</v>
+        <v>-0.3843788082139742</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.04012113070439827</v>
+        <v>0.3267247703739369</v>
       </c>
       <c r="C36">
-        <v>-0.4477713346344017</v>
+        <v>0.3266079207224462</v>
       </c>
       <c r="D36">
-        <v>0.3102382696008104</v>
+        <v>0.3264911749964565</v>
       </c>
       <c r="E36">
-        <v>-1.45995379981516</v>
+        <v>0.08243242912950532</v>
       </c>
       <c r="F36">
-        <v>2.244097482706132</v>
+        <v>0.08191604847838474</v>
       </c>
       <c r="G36">
-        <v>0.8908159272762017</v>
+        <v>0.08171177361234894</v>
       </c>
       <c r="H36">
-        <v>1.148789259546214</v>
+        <v>0.08150724184737013</v>
       </c>
       <c r="I36">
-        <v>0.007903530268827952</v>
+        <v>0.2250483599995274</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.7767211066470529</v>
+        <v>-0.002341851290204977</v>
       </c>
       <c r="C37">
-        <v>-0.01871150241184077</v>
+        <v>-0.002458597016194664</v>
       </c>
       <c r="D37">
-        <v>-1.788903571827811</v>
+        <v>-0.2465173428831459</v>
       </c>
       <c r="E37">
-        <v>1.915147710693481</v>
+        <v>-0.2470337235342664</v>
       </c>
       <c r="F37">
-        <v>0.5618661552635505</v>
+        <v>-0.2472379984003023</v>
       </c>
       <c r="G37">
-        <v>0.8198394875335627</v>
+        <v>-0.2474425301652811</v>
       </c>
       <c r="H37">
-        <v>-0.3210462417438232</v>
+        <v>-0.1039014120131238</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05946339618280949</v>
+        <v>-0.04321049078716338</v>
       </c>
       <c r="C38">
-        <v>-1.82965546559878</v>
+        <v>-0.2872692366541146</v>
       </c>
       <c r="D38">
-        <v>1.874395816922512</v>
+        <v>-0.2877856173052352</v>
       </c>
       <c r="E38">
-        <v>0.5211142614925818</v>
+        <v>-0.287989892171271</v>
       </c>
       <c r="F38">
-        <v>0.7790875937625941</v>
+        <v>-0.2881944239362498</v>
       </c>
       <c r="G38">
-        <v>-0.361798135514792</v>
+        <v>-0.1446533057840925</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1.809393771183379</v>
+        <v>-0.2670075422387138</v>
       </c>
       <c r="C39">
-        <v>1.894657511337913</v>
+        <v>-0.2675239228898343</v>
       </c>
       <c r="D39">
-        <v>0.5413759559079826</v>
+        <v>-0.2677281977558701</v>
       </c>
       <c r="E39">
-        <v>0.7993492881779949</v>
+        <v>-0.267932729520849</v>
       </c>
       <c r="F39">
-        <v>-0.3415364410993911</v>
+        <v>-0.1243916113686917</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1.840164546342552</v>
+        <v>-0.3220168878851952</v>
       </c>
       <c r="C40">
-        <v>0.4868829909126217</v>
+        <v>-0.322221162751231</v>
       </c>
       <c r="D40">
-        <v>0.744856323182634</v>
+        <v>-0.3224256945162098</v>
       </c>
       <c r="E40">
-        <v>-0.396029406094752</v>
+        <v>-0.1788845763640526</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.298282503198992</v>
+        <v>-1.107386656862845</v>
       </c>
       <c r="C41">
-        <v>-0.04030917092897979</v>
+        <v>-1.107591188627824</v>
       </c>
       <c r="D41">
-        <v>-1.181194900206366</v>
+        <v>-0.9640500704756663</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.2337172487103018</v>
+        <v>-0.8335647689885419</v>
       </c>
       <c r="C42">
-        <v>-0.9071684805670841</v>
+        <v>-0.6900236508363847</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,7 +1927,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.8487080915346654</v>
+        <v>-0.631563261803966</v>
       </c>
     </row>
     <row r="44" spans="1:11">

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.892473715781749</v>
+        <v>1.507470539621765</v>
       </c>
       <c r="C2">
-        <v>0.1219783862554223</v>
+        <v>-3.516014381112426</v>
       </c>
       <c r="D2">
-        <v>0.1222121999660957</v>
+        <v>4.369694674272838</v>
       </c>
       <c r="E2">
-        <v>0.1651595478180369</v>
+        <v>0.6939559148089827</v>
       </c>
       <c r="F2">
-        <v>0.1644195437654631</v>
+        <v>2.245115615686275</v>
       </c>
       <c r="G2">
-        <v>0.227800997759617</v>
+        <v>3.562121767586874</v>
       </c>
       <c r="H2">
-        <v>0.116647907406248</v>
+        <v>-0.2779421548499234</v>
       </c>
       <c r="I2">
-        <v>0.2054458794775812</v>
+        <v>-0.5140068859829644</v>
       </c>
       <c r="J2">
-        <v>0.2495631083826751</v>
+        <v>1.927290893162394</v>
       </c>
       <c r="K2">
-        <v>0.9976896108432257</v>
+        <v>4.794981200793716</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1903602521104121</v>
+        <v>4.437842726417154</v>
       </c>
       <c r="C3">
-        <v>0.2333075999623533</v>
+        <v>0.7621039669532992</v>
       </c>
       <c r="D3">
-        <v>0.2325675959097795</v>
+        <v>2.313263667830592</v>
       </c>
       <c r="E3">
-        <v>0.2959490499039334</v>
+        <v>3.630269819731191</v>
       </c>
       <c r="F3">
-        <v>0.1847959595505644</v>
+        <v>-0.2097941027056069</v>
       </c>
       <c r="G3">
-        <v>0.2735939316218976</v>
+        <v>-0.445858833838648</v>
       </c>
       <c r="H3">
-        <v>0.3177111605269916</v>
+        <v>1.995438945306711</v>
       </c>
       <c r="I3">
-        <v>1.065837662987542</v>
+        <v>4.863129252938032</v>
       </c>
       <c r="J3">
-        <v>0.6091731032956689</v>
+        <v>-5.812990831407822</v>
       </c>
       <c r="K3">
-        <v>0.5213474874929547</v>
+        <v>1.460561055969643</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.3785266717564195</v>
+        <v>2.459222743677232</v>
       </c>
       <c r="C4">
-        <v>0.4419081257505735</v>
+        <v>3.776228895577831</v>
       </c>
       <c r="D4">
-        <v>0.3307550353972044</v>
+        <v>-0.06383502685896691</v>
       </c>
       <c r="E4">
-        <v>0.4195530074685376</v>
+        <v>-0.299899757992008</v>
       </c>
       <c r="F4">
-        <v>0.4636702363736316</v>
+        <v>2.141398021153351</v>
       </c>
       <c r="G4">
-        <v>1.211796738834182</v>
+        <v>5.009088328784672</v>
       </c>
       <c r="H4">
-        <v>0.7551321791423089</v>
+        <v>-5.667031755561182</v>
       </c>
       <c r="I4">
-        <v>0.6673065633395947</v>
+        <v>1.606520131816283</v>
       </c>
       <c r="J4">
-        <v>0.6666943429292769</v>
+        <v>3.777068983080938</v>
       </c>
       <c r="K4">
-        <v>1.382856310437405</v>
+        <v>-5.004246340218826</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.121577708670631</v>
+        <v>-1.516167770926802</v>
       </c>
       <c r="C5">
-        <v>-1.032779736599298</v>
+        <v>-1.752232502059843</v>
       </c>
       <c r="D5">
-        <v>-0.9886625076942039</v>
+        <v>0.6890652770855155</v>
       </c>
       <c r="E5">
-        <v>-0.2405360052336534</v>
+        <v>3.556755584716836</v>
       </c>
       <c r="F5">
-        <v>-0.6972005649255266</v>
+        <v>-7.119364499629017</v>
       </c>
       <c r="G5">
-        <v>-0.7850261807282408</v>
+        <v>0.1541873877484476</v>
       </c>
       <c r="H5">
-        <v>-0.7856384011385587</v>
+        <v>2.324736239013102</v>
       </c>
       <c r="I5">
-        <v>-0.06947643363043041</v>
+        <v>-6.456579084286661</v>
       </c>
       <c r="J5">
-        <v>0.5261945607869734</v>
+        <v>0.1087520567958193</v>
       </c>
       <c r="K5">
-        <v>0.7962521034912815</v>
+        <v>0.4037777743409065</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.7141913178931459</v>
+        <v>0.9635364668865735</v>
       </c>
       <c r="C6">
-        <v>0.03393518456740461</v>
+        <v>3.831226774517894</v>
       </c>
       <c r="D6">
-        <v>-0.4227293751244686</v>
+        <v>-6.84489330982796</v>
       </c>
       <c r="E6">
-        <v>-0.5105549909271828</v>
+        <v>0.4286585775495056</v>
       </c>
       <c r="F6">
-        <v>-0.5111672113375006</v>
+        <v>2.59920742881416</v>
       </c>
       <c r="G6">
-        <v>0.2049947561706276</v>
+        <v>-6.182107894485603</v>
       </c>
       <c r="H6">
-        <v>0.8006657505880314</v>
+        <v>0.3832232465968773</v>
       </c>
       <c r="I6">
-        <v>1.070723293292339</v>
+        <v>0.6782489641419646</v>
       </c>
       <c r="J6">
-        <v>0.9200794999688996</v>
+        <v>-1.892337393779635</v>
       </c>
       <c r="K6">
-        <v>-1.296224542013938</v>
+        <v>1.355152977622061</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.6060262864254029</v>
+        <v>-7.028190221128893</v>
       </c>
       <c r="C7">
-        <v>-0.6938519022281171</v>
+        <v>0.2453616662485714</v>
       </c>
       <c r="D7">
-        <v>-0.6944641226384349</v>
+        <v>2.415910517513226</v>
       </c>
       <c r="E7">
-        <v>0.02169784486969339</v>
+        <v>-6.365404805786537</v>
       </c>
       <c r="F7">
-        <v>0.6173688392870971</v>
+        <v>0.1999263352959431</v>
       </c>
       <c r="G7">
-        <v>0.8874263819914052</v>
+        <v>0.4949520528410303</v>
       </c>
       <c r="H7">
-        <v>0.7367825886679653</v>
+        <v>-2.075634305080569</v>
       </c>
       <c r="I7">
-        <v>-1.479521453314873</v>
+        <v>1.171856066321127</v>
       </c>
       <c r="J7">
-        <v>-1.322720871369724</v>
+        <v>0.9082586945831972</v>
       </c>
       <c r="K7">
-        <v>-0.932963946551324</v>
+        <v>-1.702262283109177</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.5495500901677033</v>
+        <v>2.560824549983958</v>
       </c>
       <c r="C8">
-        <v>0.166611877340425</v>
+        <v>-6.220490773315806</v>
       </c>
       <c r="D8">
-        <v>0.7622828717578287</v>
+        <v>0.3448403677666746</v>
       </c>
       <c r="E8">
-        <v>1.032340414462137</v>
+        <v>0.6398660853117619</v>
       </c>
       <c r="F8">
-        <v>0.881696621138697</v>
+        <v>-1.930720272609837</v>
       </c>
       <c r="G8">
-        <v>-1.334607420844141</v>
+        <v>1.316770098791859</v>
       </c>
       <c r="H8">
-        <v>-1.177806838898992</v>
+        <v>1.053172727053929</v>
       </c>
       <c r="I8">
-        <v>-0.7880499140805923</v>
+        <v>-1.557348250638445</v>
       </c>
       <c r="J8">
-        <v>-0.6717761394626833</v>
+        <v>0.7036818179999742</v>
       </c>
       <c r="K8">
-        <v>-0.5028075317023351</v>
+        <v>2.057818761722369</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.581202370674504</v>
+        <v>1.16375986668335</v>
       </c>
       <c r="C9">
-        <v>1.851259913378812</v>
+        <v>1.458785584228437</v>
       </c>
       <c r="D9">
-        <v>1.700616120055372</v>
+        <v>-1.111800773693162</v>
       </c>
       <c r="E9">
-        <v>-0.5156879219274659</v>
+        <v>2.135689597708534</v>
       </c>
       <c r="F9">
-        <v>-0.3588873399823171</v>
+        <v>1.872092225970604</v>
       </c>
       <c r="G9">
-        <v>0.03086958483608271</v>
+        <v>-0.73842875172177</v>
       </c>
       <c r="H9">
-        <v>0.1471433594539917</v>
+        <v>1.522601316916649</v>
       </c>
       <c r="I9">
-        <v>0.31611196721434</v>
+        <v>2.876738260639044</v>
       </c>
       <c r="J9">
-        <v>0.2465383335157298</v>
+        <v>-1.121800249328544</v>
       </c>
       <c r="K9">
-        <v>0.2233688178375104</v>
+        <v>-1.568331859012645</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1.656397649730837</v>
+        <v>-1.156019244017697</v>
       </c>
       <c r="C10">
-        <v>-0.5599063922520005</v>
+        <v>2.091471127384</v>
       </c>
       <c r="D10">
-        <v>-0.4031058103068517</v>
+        <v>1.827873755646069</v>
       </c>
       <c r="E10">
-        <v>-0.01334888548845181</v>
+        <v>-0.7826472220463045</v>
       </c>
       <c r="F10">
-        <v>0.1029248891294572</v>
+        <v>1.478382846592115</v>
       </c>
       <c r="G10">
-        <v>0.2718934968898055</v>
+        <v>2.832519790314509</v>
       </c>
       <c r="H10">
-        <v>0.2023198631911953</v>
+        <v>-1.166018719653078</v>
       </c>
       <c r="I10">
-        <v>0.1791503475129759</v>
+        <v>-1.61255032933718</v>
       </c>
       <c r="J10">
-        <v>0.1790595538035575</v>
+        <v>0.5495046226940759</v>
       </c>
       <c r="K10">
-        <v>0.3555877477540605</v>
+        <v>-2.89593333490856</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.3883264582830307</v>
+        <v>1.84265310766989</v>
       </c>
       <c r="C11">
-        <v>0.001430466535369157</v>
+        <v>-0.7678678700224836</v>
       </c>
       <c r="D11">
-        <v>0.1177042411532782</v>
+        <v>1.493162198615936</v>
       </c>
       <c r="E11">
-        <v>0.2866728489136264</v>
+        <v>2.84729914233833</v>
       </c>
       <c r="F11">
-        <v>0.2170992152150163</v>
+        <v>-1.151239367629258</v>
       </c>
       <c r="G11">
-        <v>0.1939296995367968</v>
+        <v>-1.597770977313359</v>
       </c>
       <c r="H11">
-        <v>0.1938389058273785</v>
+        <v>0.5642839747178968</v>
       </c>
       <c r="I11">
-        <v>0.3703670997778815</v>
+        <v>-2.881153982884739</v>
       </c>
       <c r="J11">
-        <v>0.1883734374377483</v>
+        <v>4.654218452100936</v>
       </c>
       <c r="K11">
-        <v>0.1309379255469892</v>
+        <v>1.107670388511424</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.4370063481857787</v>
+        <v>1.812464305648436</v>
       </c>
       <c r="C12">
-        <v>0.6059749559461269</v>
+        <v>3.166601249370831</v>
       </c>
       <c r="D12">
-        <v>0.5364013222475168</v>
+        <v>-0.831937260596757</v>
       </c>
       <c r="E12">
-        <v>0.5132318065692973</v>
+        <v>-1.278468870280858</v>
       </c>
       <c r="F12">
-        <v>0.513141012859879</v>
+        <v>0.8835860817503973</v>
       </c>
       <c r="G12">
-        <v>0.689669206810382</v>
+        <v>-2.561851875852238</v>
       </c>
       <c r="H12">
-        <v>0.5076755444702488</v>
+        <v>4.973520559133437</v>
       </c>
       <c r="I12">
-        <v>0.4502400325794897</v>
+        <v>1.426972495543925</v>
       </c>
       <c r="J12">
-        <v>0.4500214634402115</v>
+        <v>-0.2467896997245982</v>
       </c>
       <c r="K12">
-        <v>0.1925805878694322</v>
+        <v>-0.621031966965472</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.5038162233849335</v>
+        <v>-1.872154806229207</v>
       </c>
       <c r="C13">
-        <v>-0.5269857390631529</v>
+        <v>-2.318686415913308</v>
       </c>
       <c r="D13">
-        <v>-0.5270765327725713</v>
+        <v>-0.1566314638820529</v>
       </c>
       <c r="E13">
-        <v>-0.3505483388220682</v>
+        <v>-3.602069421484688</v>
       </c>
       <c r="F13">
-        <v>-0.5325420011622015</v>
+        <v>3.933303013500987</v>
       </c>
       <c r="G13">
-        <v>-0.5899775130529605</v>
+        <v>0.3867549499114745</v>
       </c>
       <c r="H13">
-        <v>-0.5901960821922387</v>
+        <v>-1.287007245357048</v>
       </c>
       <c r="I13">
-        <v>-0.8476369577630181</v>
+        <v>-1.661249512597922</v>
       </c>
       <c r="J13">
-        <v>-0.8781288570719454</v>
+        <v>1.339880579267825</v>
       </c>
       <c r="K13">
-        <v>-0.9213729249179494</v>
+        <v>0.3637186274690521</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5248497189550675</v>
+        <v>-0.1544046500645492</v>
       </c>
       <c r="C14">
-        <v>-0.3483215250045645</v>
+        <v>-3.599842607667185</v>
       </c>
       <c r="D14">
-        <v>-0.5303151873446977</v>
+        <v>3.93552982731849</v>
       </c>
       <c r="E14">
-        <v>-0.5877506992354568</v>
+        <v>0.3889817637289782</v>
       </c>
       <c r="F14">
-        <v>-0.587969268374735</v>
+        <v>-1.284780431539545</v>
       </c>
       <c r="G14">
-        <v>-0.8454101439455143</v>
+        <v>-1.659022698780418</v>
       </c>
       <c r="H14">
-        <v>-0.8759020432544417</v>
+        <v>1.342107393085328</v>
       </c>
       <c r="I14">
-        <v>-0.9191461111004456</v>
+        <v>0.3659454412865558</v>
       </c>
       <c r="J14">
-        <v>-0.9192005223421801</v>
+        <v>-1.929023998798797</v>
       </c>
       <c r="K14">
-        <v>-0.2966513207244076</v>
+        <v>-2.284517558962435</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>9.566403075489394E-05</v>
+        <v>4.465940678693944</v>
       </c>
       <c r="C15">
-        <v>-0.05733984786000412</v>
+        <v>0.9193926151044308</v>
       </c>
       <c r="D15">
-        <v>-0.05755841699928232</v>
+        <v>-0.7543695801640921</v>
       </c>
       <c r="E15">
-        <v>-0.3149992925700617</v>
+        <v>-1.128611847404966</v>
       </c>
       <c r="F15">
-        <v>-0.345491191878989</v>
+        <v>1.872518244460781</v>
       </c>
       <c r="G15">
-        <v>-0.388735259724993</v>
+        <v>0.8963562926620084</v>
       </c>
       <c r="H15">
-        <v>-0.3887896709667275</v>
+        <v>-1.398613147423345</v>
       </c>
       <c r="I15">
-        <v>0.233759530651045</v>
+        <v>-1.754106707586982</v>
       </c>
       <c r="J15">
-        <v>0.0648367192629592</v>
+        <v>2.478563951183577</v>
       </c>
       <c r="K15">
-        <v>-0.04630355562141808</v>
+        <v>0.2922238094781761</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.3780339323794379</v>
+        <v>-1.074845095544248</v>
       </c>
       <c r="C16">
-        <v>-0.6354748079502173</v>
+        <v>-1.449087362785122</v>
       </c>
       <c r="D16">
-        <v>-0.6659667072591446</v>
+        <v>1.552042729080625</v>
       </c>
       <c r="E16">
-        <v>-0.7092107751051486</v>
+        <v>0.5758807772818528</v>
       </c>
       <c r="F16">
-        <v>-0.7092651863468831</v>
+        <v>-1.7190886628035</v>
       </c>
       <c r="G16">
-        <v>-0.08671598472911057</v>
+        <v>-2.074582222967138</v>
       </c>
       <c r="H16">
-        <v>-0.2556387961171964</v>
+        <v>2.158088435803421</v>
       </c>
       <c r="I16">
-        <v>-0.3667790710015737</v>
+        <v>-0.02825170590197956</v>
       </c>
       <c r="J16">
-        <v>-0.3700143163867153</v>
+        <v>-0.5729825583898389</v>
       </c>
       <c r="K16">
-        <v>-0.3765914745778787</v>
+        <v>-2.049374377194824</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.4796389679226394</v>
+        <v>1.738370468417131</v>
       </c>
       <c r="C17">
-        <v>-0.5228830357686434</v>
+        <v>0.7622085166183581</v>
       </c>
       <c r="D17">
-        <v>-0.5229374470103778</v>
+        <v>-1.532760923466995</v>
       </c>
       <c r="E17">
-        <v>0.09961175460739469</v>
+        <v>-1.888254483630632</v>
       </c>
       <c r="F17">
-        <v>-0.06931105678069116</v>
+        <v>2.344416175139926</v>
       </c>
       <c r="G17">
-        <v>-0.1804513316650684</v>
+        <v>0.1580760334345257</v>
       </c>
       <c r="H17">
-        <v>-0.1836865770502101</v>
+        <v>-0.3866548190533337</v>
       </c>
       <c r="I17">
-        <v>-0.1902637352413734</v>
+        <v>-1.863046637858318</v>
       </c>
       <c r="J17">
-        <v>-0.1910002036912744</v>
+        <v>-0.05777432076874334</v>
       </c>
       <c r="K17">
-        <v>-0.2303648574803816</v>
+        <v>0.8691240358678698</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.3072080966104608</v>
+        <v>-1.317031573067078</v>
       </c>
       <c r="C18">
-        <v>0.3153411050073117</v>
+        <v>-1.672525133230715</v>
       </c>
       <c r="D18">
-        <v>0.1464182936192259</v>
+        <v>2.560145525539844</v>
       </c>
       <c r="E18">
-        <v>0.03527801873484859</v>
+        <v>0.3738053838344427</v>
       </c>
       <c r="F18">
-        <v>0.03204277334970695</v>
+        <v>-0.1709254686534166</v>
       </c>
       <c r="G18">
-        <v>0.02546561515854362</v>
+        <v>-1.647317287458401</v>
       </c>
       <c r="H18">
-        <v>0.02472914670864268</v>
+        <v>0.1579550296311737</v>
       </c>
       <c r="I18">
-        <v>-0.01463550708046457</v>
+        <v>1.084853386267787</v>
       </c>
       <c r="J18">
-        <v>-0.01494193468514882</v>
+        <v>1.010188595107371</v>
       </c>
       <c r="K18">
-        <v>0.008051626903485931</v>
+        <v>-1.419234774058134</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.0305902321375342</v>
+        <v>2.444317464058152</v>
       </c>
       <c r="C19">
-        <v>-0.08055004274684308</v>
+        <v>0.2579773223527511</v>
       </c>
       <c r="D19">
-        <v>-0.08378528813198471</v>
+        <v>-0.2867535301351083</v>
       </c>
       <c r="E19">
-        <v>-0.09036244632314805</v>
+        <v>-1.763145348940093</v>
       </c>
       <c r="F19">
-        <v>-0.09109891477304899</v>
+        <v>0.04212696814948202</v>
       </c>
       <c r="G19">
-        <v>-0.1304635685621562</v>
+        <v>0.9690253247860952</v>
       </c>
       <c r="H19">
-        <v>-0.1307699961668405</v>
+        <v>0.8943605336256795</v>
       </c>
       <c r="I19">
-        <v>-0.1077764345782057</v>
+        <v>-1.535062835539826</v>
       </c>
       <c r="J19">
-        <v>-0.1081069259754415</v>
+        <v>-0.07211974765800022</v>
       </c>
       <c r="K19">
-        <v>-0.1201146892980987</v>
+        <v>-0.362968985056385</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.7768422890099146</v>
+        <v>-0.9798105310130382</v>
       </c>
       <c r="C20">
-        <v>-0.7834194472010779</v>
+        <v>-2.456202349818023</v>
       </c>
       <c r="D20">
-        <v>-0.7841559156509789</v>
+        <v>-0.6509300327284478</v>
       </c>
       <c r="E20">
-        <v>-0.8235205694400861</v>
+        <v>0.2759683239081653</v>
       </c>
       <c r="F20">
-        <v>-0.8238269970447704</v>
+        <v>0.2013035327477496</v>
       </c>
       <c r="G20">
-        <v>-0.8008334354561356</v>
+        <v>-2.228119836417756</v>
       </c>
       <c r="H20">
-        <v>-0.8011639268533713</v>
+        <v>-0.7651767485359301</v>
       </c>
       <c r="I20">
-        <v>-0.8131716901760285</v>
+        <v>-1.056025985934315</v>
       </c>
       <c r="J20">
-        <v>-0.8135545968808572</v>
+        <v>-1.440349059881592</v>
       </c>
       <c r="K20">
-        <v>-0.7617576957723543</v>
+        <v>-2.056025985934315</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.05163748724463635</v>
+        <v>0.08158839567789467</v>
       </c>
       <c r="C21">
-        <v>-0.0910021410337436</v>
+        <v>1.008486752314508</v>
       </c>
       <c r="D21">
-        <v>-0.09130856863842784</v>
+        <v>0.9338219611540921</v>
       </c>
       <c r="E21">
-        <v>-0.0683150070497931</v>
+        <v>-1.495601408011414</v>
       </c>
       <c r="F21">
-        <v>-0.06864549844702883</v>
+        <v>-0.03265832012958758</v>
       </c>
       <c r="G21">
-        <v>-0.08065326176968601</v>
+        <v>-0.3235075575279723</v>
       </c>
       <c r="H21">
-        <v>-0.08103616847451467</v>
+        <v>-0.7078306314752494</v>
       </c>
       <c r="I21">
-        <v>-0.02923926736601179</v>
+        <v>-1.323507557527972</v>
       </c>
       <c r="J21">
-        <v>-0.01162490744660549</v>
+        <v>1.602907188952554</v>
       </c>
       <c r="K21">
-        <v>0.01249762676661414</v>
+        <v>-0.5964879289583422</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05233824838614676</v>
+        <v>0.9727922814063732</v>
       </c>
       <c r="C22">
-        <v>-0.02934468679751201</v>
+        <v>-1.456631087759132</v>
       </c>
       <c r="D22">
-        <v>-0.02967517819474774</v>
+        <v>0.006312000122693506</v>
       </c>
       <c r="E22">
-        <v>-0.04168294151740493</v>
+        <v>-0.2845372372756912</v>
       </c>
       <c r="F22">
-        <v>-0.04206584822223358</v>
+        <v>-0.6688603112229683</v>
       </c>
       <c r="G22">
-        <v>0.009731052886269298</v>
+        <v>-1.284537237275691</v>
       </c>
       <c r="H22">
-        <v>0.0273454128056756</v>
+        <v>1.641877509204835</v>
       </c>
       <c r="I22">
-        <v>0.05146794701889523</v>
+        <v>-0.5575176087060612</v>
       </c>
       <c r="J22">
-        <v>0.05094060496265063</v>
+        <v>0.01501271136055782</v>
       </c>
       <c r="K22">
-        <v>0.02309084191670085</v>
+        <v>-3.484537237275691</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01214995419333464</v>
+        <v>-1.439436355154955</v>
       </c>
       <c r="C23">
-        <v>-0.01248044559057038</v>
+        <v>0.02350673272687087</v>
       </c>
       <c r="D23">
-        <v>-0.02448820891322756</v>
+        <v>-0.2673425046715139</v>
       </c>
       <c r="E23">
-        <v>-0.02487111561805622</v>
+        <v>-0.6516655786187909</v>
       </c>
       <c r="F23">
-        <v>0.02692578549044666</v>
+        <v>-1.267342504671514</v>
       </c>
       <c r="G23">
-        <v>0.04454014540985296</v>
+        <v>1.659072241809012</v>
       </c>
       <c r="H23">
-        <v>0.0686626796230726</v>
+        <v>-0.5403228761018838</v>
       </c>
       <c r="I23">
-        <v>0.06813533756682799</v>
+        <v>0.03220744396473518</v>
       </c>
       <c r="J23">
-        <v>0.04028557452087822</v>
+        <v>-3.467342504671513</v>
       </c>
       <c r="K23">
-        <v>0.04049394406685136</v>
+        <v>4.854790911754233</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2372135752398407</v>
+        <v>0.2732007535572819</v>
       </c>
       <c r="C24">
-        <v>0.2252058119171835</v>
+        <v>-0.01764848384110285</v>
       </c>
       <c r="D24">
-        <v>0.2248229052123548</v>
+        <v>-0.4019715577883799</v>
       </c>
       <c r="E24">
-        <v>0.2766198063208577</v>
+        <v>-1.017648483841103</v>
       </c>
       <c r="F24">
-        <v>0.294234166240264</v>
+        <v>1.908766262639423</v>
       </c>
       <c r="G24">
-        <v>0.3183567004534836</v>
+        <v>-0.2906288552714728</v>
       </c>
       <c r="H24">
-        <v>0.317829358397239</v>
+        <v>0.2819014647951462</v>
       </c>
       <c r="I24">
-        <v>0.2899795953512893</v>
+        <v>-3.217648483841102</v>
       </c>
       <c r="J24">
-        <v>0.2901879648972624</v>
+        <v>5.104484932584644</v>
       </c>
       <c r="K24">
-        <v>0.2897816676142838</v>
+        <v>2.84956630682955</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0338059448799285</v>
+        <v>-0.2090483508783578</v>
       </c>
       <c r="C25">
-        <v>0.03342303817509984</v>
+        <v>-0.5933714248256349</v>
       </c>
       <c r="D25">
-        <v>0.08521993928360272</v>
+        <v>-1.209048350878358</v>
       </c>
       <c r="E25">
-        <v>0.102834299203009</v>
+        <v>1.717366395602168</v>
       </c>
       <c r="F25">
-        <v>0.1269568334162287</v>
+        <v>-0.4820287223087277</v>
       </c>
       <c r="G25">
-        <v>0.126429491359984</v>
+        <v>0.09050159775789124</v>
       </c>
       <c r="H25">
-        <v>0.09857972831403428</v>
+        <v>-3.409048350878357</v>
       </c>
       <c r="I25">
-        <v>0.09878809786000742</v>
+        <v>4.913085065547389</v>
       </c>
       <c r="J25">
-        <v>0.09838180057702883</v>
+        <v>2.658166439792295</v>
       </c>
       <c r="K25">
-        <v>0.0979759702749291</v>
+        <v>-1.14516109833548</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05611307032008506</v>
+        <v>-0.6829075333208198</v>
       </c>
       <c r="C26">
-        <v>-0.004316169211582177</v>
+        <v>-1.298584459373543</v>
       </c>
       <c r="D26">
-        <v>0.01329819070782412</v>
+        <v>1.627830287106983</v>
       </c>
       <c r="E26">
-        <v>0.03742072492104376</v>
+        <v>-0.5715648308039126</v>
       </c>
       <c r="F26">
-        <v>0.03689338286479915</v>
+        <v>0.0009654892627063427</v>
       </c>
       <c r="G26">
-        <v>0.00904361981884938</v>
+        <v>-3.498584459373542</v>
       </c>
       <c r="H26">
-        <v>0.009251989364822522</v>
+        <v>4.823548957052205</v>
       </c>
       <c r="I26">
-        <v>0.008845692081843937</v>
+        <v>2.56863033129711</v>
       </c>
       <c r="J26">
-        <v>0.008439861779744207</v>
+        <v>-1.234697206830665</v>
       </c>
       <c r="K26">
-        <v>0.28054866227482</v>
+        <v>-0.5410917011101096</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.1669443414103042</v>
+        <v>-1.127323948751656</v>
       </c>
       <c r="C27">
-        <v>0.1845587013297105</v>
+        <v>1.79909079772887</v>
       </c>
       <c r="D27">
-        <v>0.2086812355429302</v>
+        <v>-0.4003043201820262</v>
       </c>
       <c r="E27">
-        <v>0.2081538934866856</v>
+        <v>0.1722259998845928</v>
       </c>
       <c r="F27">
-        <v>0.1803041304407358</v>
+        <v>-3.327323948751656</v>
       </c>
       <c r="G27">
-        <v>0.1805124999867089</v>
+        <v>4.994809467674092</v>
       </c>
       <c r="H27">
-        <v>0.1801062027037303</v>
+        <v>2.739890841918997</v>
       </c>
       <c r="I27">
-        <v>0.1797003724016306</v>
+        <v>-1.063436696208778</v>
       </c>
       <c r="J27">
-        <v>0.4518091728967064</v>
+        <v>-0.3698311904882232</v>
       </c>
       <c r="K27">
-        <v>0.4515807425543883</v>
+        <v>0.4947839044286908</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3697995968232419</v>
+        <v>1.984331693222401</v>
       </c>
       <c r="C28">
-        <v>0.3939221310364616</v>
+        <v>-0.2150634246884948</v>
       </c>
       <c r="D28">
-        <v>0.393394788980217</v>
+        <v>0.3574668953781241</v>
       </c>
       <c r="E28">
-        <v>0.3655450259342672</v>
+        <v>-3.142083053258125</v>
       </c>
       <c r="F28">
-        <v>0.3657533954802403</v>
+        <v>5.180050363167623</v>
       </c>
       <c r="G28">
-        <v>0.3653470981972617</v>
+        <v>2.925131737412528</v>
       </c>
       <c r="H28">
-        <v>0.364941267895162</v>
+        <v>-0.8781958007152468</v>
       </c>
       <c r="I28">
-        <v>0.6370500683902378</v>
+        <v>-0.1845902949946918</v>
       </c>
       <c r="J28">
-        <v>0.6368216380479197</v>
+        <v>0.6800247999222222</v>
       </c>
       <c r="K28">
-        <v>0.636704788396429</v>
+        <v>3.294128631961939</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.2814899846712479</v>
+        <v>-0.3274955710537085</v>
       </c>
       <c r="C29">
-        <v>0.2809626426150033</v>
+        <v>0.2450347490129104</v>
       </c>
       <c r="D29">
-        <v>0.2531128795690535</v>
+        <v>-3.254515199623338</v>
       </c>
       <c r="E29">
-        <v>0.2533212491150266</v>
+        <v>5.067618216802409</v>
       </c>
       <c r="F29">
-        <v>0.252914951832048</v>
+        <v>2.812699591047314</v>
       </c>
       <c r="G29">
-        <v>0.2525091215299483</v>
+        <v>-0.9906279470804605</v>
       </c>
       <c r="H29">
-        <v>0.5246179220250241</v>
+        <v>-0.2970224413599055</v>
       </c>
       <c r="I29">
-        <v>0.524389491682706</v>
+        <v>0.5675926535570085</v>
       </c>
       <c r="J29">
-        <v>0.5242726420312154</v>
+        <v>3.181696485596725</v>
       </c>
       <c r="K29">
-        <v>0.5241558963052256</v>
+        <v>0.8090552513476951</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1067152673390552</v>
+        <v>0.07078737373696242</v>
       </c>
       <c r="C30">
-        <v>0.07886550429310546</v>
+        <v>-3.428762574899286</v>
       </c>
       <c r="D30">
-        <v>0.0790738738390786</v>
+        <v>4.893370841526461</v>
       </c>
       <c r="E30">
-        <v>0.07866757655610002</v>
+        <v>2.638452215771366</v>
       </c>
       <c r="F30">
-        <v>0.07826174625400029</v>
+        <v>-1.164875322356409</v>
       </c>
       <c r="G30">
-        <v>0.3503705467490761</v>
+        <v>-0.4712698166358535</v>
       </c>
       <c r="H30">
-        <v>0.350142116406758</v>
+        <v>0.3933452782810605</v>
       </c>
       <c r="I30">
-        <v>0.3500252667552673</v>
+        <v>3.007449110320777</v>
       </c>
       <c r="J30">
-        <v>0.3499085210292776</v>
+        <v>0.634807876071747</v>
       </c>
       <c r="K30">
-        <v>0.1058497751623264</v>
+        <v>-3.951825383950663</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.03897509000313448</v>
+        <v>-3.468652989189257</v>
       </c>
       <c r="C31">
-        <v>0.03918345954910762</v>
+        <v>4.85348042723649</v>
       </c>
       <c r="D31">
-        <v>0.03877716226612904</v>
+        <v>2.598561801481395</v>
       </c>
       <c r="E31">
-        <v>0.03837133196402931</v>
+        <v>-1.20476573664638</v>
       </c>
       <c r="F31">
-        <v>0.3104801324591051</v>
+        <v>-0.5111602309258245</v>
       </c>
       <c r="G31">
-        <v>0.310251702116787</v>
+        <v>0.3534548639910895</v>
       </c>
       <c r="H31">
-        <v>0.3101348524652963</v>
+        <v>2.967558696030806</v>
       </c>
       <c r="I31">
-        <v>0.3100181067393066</v>
+        <v>0.5949174617817761</v>
       </c>
       <c r="J31">
-        <v>0.06595936087235543</v>
+        <v>-3.991715798240634</v>
       </c>
       <c r="K31">
-        <v>0.06544298022123485</v>
+        <v>3.993058161748805</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.4230084347032192</v>
+        <v>5.237305402390602</v>
       </c>
       <c r="C32">
-        <v>0.4226021374202407</v>
+        <v>2.982386776635507</v>
       </c>
       <c r="D32">
-        <v>0.4221963071181409</v>
+        <v>-0.8209407614922679</v>
       </c>
       <c r="E32">
-        <v>0.6943051076132167</v>
+        <v>-0.1273352557717129</v>
       </c>
       <c r="F32">
-        <v>0.6940766772708986</v>
+        <v>0.7372798391452011</v>
       </c>
       <c r="G32">
-        <v>0.6939598276194079</v>
+        <v>3.351383671184918</v>
       </c>
       <c r="H32">
-        <v>0.6938430818934183</v>
+        <v>0.9787424369358877</v>
       </c>
       <c r="I32">
-        <v>0.4497843360264671</v>
+        <v>-3.607890823086522</v>
       </c>
       <c r="J32">
-        <v>0.4492679553753465</v>
+        <v>4.376883136902917</v>
       </c>
       <c r="K32">
-        <v>0.4490636805093107</v>
+        <v>2.448161103956947</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.005495683675263541</v>
+        <v>2.654067874858979</v>
       </c>
       <c r="C33">
-        <v>0.005089853373163811</v>
+        <v>-1.149259663268797</v>
       </c>
       <c r="D33">
-        <v>0.2771986538682396</v>
+        <v>-0.4556541575482416</v>
       </c>
       <c r="E33">
-        <v>0.2769702235259215</v>
+        <v>0.4089609373686725</v>
       </c>
       <c r="F33">
-        <v>0.2768533738744308</v>
+        <v>3.023064769408389</v>
       </c>
       <c r="G33">
-        <v>0.2767366281484411</v>
+        <v>0.650423535159359</v>
       </c>
       <c r="H33">
-        <v>0.03267788228148993</v>
+        <v>-3.936209724863051</v>
       </c>
       <c r="I33">
-        <v>0.03216150163036935</v>
+        <v>4.048564235126388</v>
       </c>
       <c r="J33">
-        <v>0.03195722676433355</v>
+        <v>2.119842202180418</v>
       </c>
       <c r="K33">
-        <v>0.03175269499935474</v>
+        <v>3.538263605999756</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.2071919119040349</v>
+        <v>-1.406082312388987</v>
       </c>
       <c r="C34">
-        <v>0.06491688859104089</v>
+        <v>-0.7124768066684315</v>
       </c>
       <c r="D34">
-        <v>0.06468845824872277</v>
+        <v>0.1521382882484826</v>
       </c>
       <c r="E34">
-        <v>0.0645716085972321</v>
+        <v>2.766242120288199</v>
       </c>
       <c r="F34">
-        <v>0.06445486287124241</v>
+        <v>0.3936008860391692</v>
       </c>
       <c r="G34">
-        <v>-0.1796038829957088</v>
+        <v>-4.19303237398324</v>
       </c>
       <c r="H34">
-        <v>-0.1801202636468294</v>
+        <v>3.791741586006199</v>
       </c>
       <c r="I34">
-        <v>-0.1803245385128652</v>
+        <v>1.863019553060228</v>
       </c>
       <c r="J34">
-        <v>-0.180529070277844</v>
+        <v>3.281440956879567</v>
       </c>
       <c r="K34">
-        <v>-0.03698795212568673</v>
+        <v>-3.503526958933943</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.2824739674972466</v>
+        <v>-0.672199617619697</v>
       </c>
       <c r="C35">
-        <v>-0.2827023978395647</v>
+        <v>0.192415477297217</v>
       </c>
       <c r="D35">
-        <v>-0.2828192474910554</v>
+        <v>2.806519309336934</v>
       </c>
       <c r="E35">
-        <v>-0.2829359932170451</v>
+        <v>0.4338780750879035</v>
       </c>
       <c r="F35">
-        <v>-0.5269947390839963</v>
+        <v>-4.152755184934506</v>
       </c>
       <c r="G35">
-        <v>-0.5275111197351169</v>
+        <v>3.832018775054933</v>
       </c>
       <c r="H35">
-        <v>-0.5277153946011527</v>
+        <v>1.903296742108963</v>
       </c>
       <c r="I35">
-        <v>-0.5279199263661315</v>
+        <v>3.321718145928301</v>
       </c>
       <c r="J35">
-        <v>-0.3843788082139742</v>
+        <v>-3.463249769885209</v>
+      </c>
+      <c r="K35">
+        <v>0.2373716882174361</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.3267247703739369</v>
+        <v>0.4252188579710984</v>
       </c>
       <c r="C36">
-        <v>0.3266079207224462</v>
+        <v>3.039322690010815</v>
       </c>
       <c r="D36">
-        <v>0.3264911749964565</v>
+        <v>0.6666814557617849</v>
       </c>
       <c r="E36">
-        <v>0.08243242912950532</v>
+        <v>-3.919951804260625</v>
       </c>
       <c r="F36">
-        <v>0.08191604847838474</v>
+        <v>4.064822155728814</v>
       </c>
       <c r="G36">
-        <v>0.08171177361234894</v>
+        <v>2.136100122782844</v>
       </c>
       <c r="H36">
-        <v>0.08150724184737013</v>
+        <v>3.554521526602182</v>
       </c>
       <c r="I36">
-        <v>0.2250483599995274</v>
+        <v>-3.230446389211328</v>
+      </c>
+      <c r="J36">
+        <v>0.4701750688913175</v>
+      </c>
+      <c r="K36">
+        <v>0.2706603698467755</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.002341851290204977</v>
+        <v>2.805522850905076</v>
       </c>
       <c r="C37">
-        <v>-0.002458597016194664</v>
+        <v>0.4328816166560454</v>
       </c>
       <c r="D37">
-        <v>-0.2465173428831459</v>
+        <v>-4.153751643366364</v>
       </c>
       <c r="E37">
-        <v>-0.2470337235342664</v>
+        <v>3.831022316623075</v>
       </c>
       <c r="F37">
-        <v>-0.2472379984003023</v>
+        <v>1.902300283677105</v>
       </c>
       <c r="G37">
-        <v>-0.2474425301652811</v>
+        <v>3.320721687496443</v>
       </c>
       <c r="H37">
-        <v>-0.1039014120131238</v>
+        <v>-3.464246228317067</v>
+      </c>
+      <c r="I37">
+        <v>0.2363752297855779</v>
+      </c>
+      <c r="J37">
+        <v>0.0368605307410359</v>
+      </c>
+      <c r="K37">
+        <v>2.190984887977477</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.04321049078716338</v>
+        <v>0.1179306833085979</v>
       </c>
       <c r="C38">
-        <v>-0.2872692366541146</v>
+        <v>-4.468702576713812</v>
       </c>
       <c r="D38">
-        <v>-0.2877856173052352</v>
+        <v>3.516071383275627</v>
       </c>
       <c r="E38">
-        <v>-0.287989892171271</v>
+        <v>1.587349350329657</v>
       </c>
       <c r="F38">
-        <v>-0.2881944239362498</v>
+        <v>3.005770754148995</v>
       </c>
       <c r="G38">
-        <v>-0.1446533057840925</v>
+        <v>-3.779197161664515</v>
+      </c>
+      <c r="H38">
+        <v>-0.07857570356186958</v>
+      </c>
+      <c r="I38">
+        <v>-0.2780904026064116</v>
+      </c>
+      <c r="J38">
+        <v>1.876033954630029</v>
+      </c>
+      <c r="K38">
+        <v>-2.558302270139054</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.2670075422387138</v>
+        <v>-4.495460089240008</v>
       </c>
       <c r="C39">
-        <v>-0.2675239228898343</v>
+        <v>3.489313870749431</v>
       </c>
       <c r="D39">
-        <v>-0.2677281977558701</v>
+        <v>1.560591837803461</v>
       </c>
       <c r="E39">
-        <v>-0.267932729520849</v>
+        <v>2.979013241622799</v>
       </c>
       <c r="F39">
-        <v>-0.1243916113686917</v>
+        <v>-3.805954674190711</v>
+      </c>
+      <c r="G39">
+        <v>-0.1053332160880657</v>
+      </c>
+      <c r="H39">
+        <v>-0.3048479151326077</v>
+      </c>
+      <c r="I39">
+        <v>1.849276442103833</v>
+      </c>
+      <c r="J39">
+        <v>-2.58505978266525</v>
+      </c>
+      <c r="K39">
+        <v>2.135731720098978</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.3220168878851952</v>
+        <v>3.775226034006199</v>
       </c>
       <c r="C40">
-        <v>-0.322221162751231</v>
+        <v>1.846504001060229</v>
       </c>
       <c r="D40">
-        <v>-0.3224256945162098</v>
+        <v>3.264925404879567</v>
       </c>
       <c r="E40">
-        <v>-0.1788845763640526</v>
+        <v>-3.520042510933943</v>
+      </c>
+      <c r="F40">
+        <v>0.1805789471687025</v>
+      </c>
+      <c r="G40">
+        <v>-0.01893575187583951</v>
+      </c>
+      <c r="H40">
+        <v>2.135188605360601</v>
+      </c>
+      <c r="I40">
+        <v>-2.299147619408482</v>
+      </c>
+      <c r="J40">
+        <v>2.421643883355746</v>
+      </c>
+      <c r="K40">
+        <v>0.7599842141584123</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1.107386656862845</v>
+        <v>1.346568474597478</v>
       </c>
       <c r="C41">
-        <v>-1.107591188627824</v>
+        <v>2.764989878416816</v>
       </c>
       <c r="D41">
-        <v>-0.9640500704756663</v>
+        <v>-4.019978037396694</v>
+      </c>
+      <c r="E41">
+        <v>-0.319356579294049</v>
+      </c>
+      <c r="F41">
+        <v>-0.518871278338591</v>
+      </c>
+      <c r="G41">
+        <v>1.63525307889785</v>
+      </c>
+      <c r="H41">
+        <v>-2.799083145871233</v>
+      </c>
+      <c r="I41">
+        <v>1.921708356892995</v>
+      </c>
+      <c r="J41">
+        <v>0.2600486876956608</v>
+      </c>
+      <c r="K41">
+        <v>-1.130132882284411</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.8335647689885419</v>
+        <v>2.205232313771708</v>
       </c>
       <c r="C42">
-        <v>-0.6900236508363847</v>
+        <v>-4.579735602041802</v>
+      </c>
+      <c r="D42">
+        <v>-0.8791141439391568</v>
+      </c>
+      <c r="E42">
+        <v>-1.078628842983699</v>
+      </c>
+      <c r="F42">
+        <v>1.075495514252742</v>
+      </c>
+      <c r="G42">
+        <v>-3.358840710516341</v>
+      </c>
+      <c r="H42">
+        <v>1.361950792247887</v>
+      </c>
+      <c r="I42">
+        <v>-0.2997088769494469</v>
+      </c>
+      <c r="J42">
+        <v>-1.689890446929519</v>
+      </c>
+      <c r="K42">
+        <v>-1.173763068387112</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.631563261803966</v>
+        <v>-4.335816941850281</v>
+      </c>
+      <c r="C43">
+        <v>-0.6351954837476357</v>
+      </c>
+      <c r="D43">
+        <v>-0.8347101827921777</v>
+      </c>
+      <c r="E43">
+        <v>1.319414174444263</v>
+      </c>
+      <c r="F43">
+        <v>-3.11492205032482</v>
+      </c>
+      <c r="G43">
+        <v>1.605869452439408</v>
+      </c>
+      <c r="H43">
+        <v>-0.05579021675792589</v>
+      </c>
+      <c r="I43">
+        <v>-1.445971786737998</v>
+      </c>
+      <c r="J43">
+        <v>-0.9298444081955908</v>
+      </c>
+      <c r="K43">
+        <v>1.671198731940892</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.1479089852075264</v>
+      </c>
+      <c r="C44">
+        <v>-0.3474236842520684</v>
+      </c>
+      <c r="D44">
+        <v>1.806700672984372</v>
+      </c>
+      <c r="E44">
+        <v>-2.627635551784711</v>
+      </c>
+      <c r="F44">
+        <v>2.093155950979518</v>
+      </c>
+      <c r="G44">
+        <v>0.4314962817821834</v>
+      </c>
+      <c r="H44">
+        <v>-0.9586852881978885</v>
+      </c>
+      <c r="I44">
+        <v>-0.4425579096554815</v>
+      </c>
+      <c r="J44">
+        <v>2.158485230481002</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.8243025540847397</v>
+      </c>
+      <c r="C45">
+        <v>1.329821803151701</v>
+      </c>
+      <c r="D45">
+        <v>-3.104514421617382</v>
+      </c>
+      <c r="E45">
+        <v>1.616277081146846</v>
+      </c>
+      <c r="F45">
+        <v>-0.045382588050488</v>
+      </c>
+      <c r="G45">
+        <v>-1.43556415803056</v>
+      </c>
+      <c r="H45">
+        <v>-0.9194367794881529</v>
+      </c>
+      <c r="I45">
+        <v>1.68160636064833</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>1.267994567182391</v>
+      </c>
+      <c r="C46">
+        <v>-3.166341657586692</v>
+      </c>
+      <c r="D46">
+        <v>1.554449845177537</v>
+      </c>
+      <c r="E46">
+        <v>-0.1072098240197976</v>
+      </c>
+      <c r="F46">
+        <v>-1.49739139399987</v>
+      </c>
+      <c r="G46">
+        <v>-0.9812640154574626</v>
+      </c>
+      <c r="H46">
+        <v>1.619779124679021</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-3.699169080334713</v>
+      </c>
+      <c r="C47">
+        <v>1.021622422429515</v>
+      </c>
+      <c r="D47">
+        <v>-0.6400372467678196</v>
+      </c>
+      <c r="E47">
+        <v>-2.030218816747892</v>
+      </c>
+      <c r="F47">
+        <v>-1.514091438205484</v>
+      </c>
+      <c r="G47">
+        <v>1.086951701930999</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1.645400292377897</v>
+      </c>
+      <c r="C48">
+        <v>-0.01625937681943701</v>
+      </c>
+      <c r="D48">
+        <v>-1.406440946799509</v>
+      </c>
+      <c r="E48">
+        <v>-0.890313568257102</v>
+      </c>
+      <c r="F48">
+        <v>1.710729571879381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.3139225344336737</v>
+      </c>
+      <c r="C49">
+        <v>-1.704104104413746</v>
+      </c>
+      <c r="D49">
+        <v>-1.187976725871339</v>
+      </c>
+      <c r="E49">
+        <v>1.413066414265145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-2.120353302769076</v>
+      </c>
+      <c r="C50">
+        <v>-1.604225924226669</v>
+      </c>
+      <c r="D50">
+        <v>0.9968172159098141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-1.196611747967732</v>
+      </c>
+      <c r="C51">
+        <v>1.404431392168751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>1.564420734401134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>2.245115615686275</v>
       </c>
-      <c r="G2">
-        <v>3.562121767586874</v>
-      </c>
-      <c r="H2">
-        <v>-0.2779421548499234</v>
-      </c>
-      <c r="I2">
-        <v>-0.5140068859829644</v>
-      </c>
-      <c r="J2">
-        <v>1.927290893162394</v>
-      </c>
-      <c r="K2">
-        <v>4.794981200793716</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>1.995438945306711</v>
       </c>
-      <c r="I3">
-        <v>4.863129252938032</v>
-      </c>
-      <c r="J3">
-        <v>-5.812990831407822</v>
-      </c>
-      <c r="K3">
-        <v>1.460561055969643</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>2.141398021153351</v>
       </c>
-      <c r="G4">
-        <v>5.009088328784672</v>
-      </c>
-      <c r="H4">
-        <v>-5.667031755561182</v>
-      </c>
-      <c r="I4">
-        <v>1.606520131816283</v>
-      </c>
-      <c r="J4">
-        <v>3.777068983080938</v>
-      </c>
-      <c r="K4">
-        <v>-5.004246340218826</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>2.324736239013102</v>
       </c>
-      <c r="I5">
-        <v>-6.456579084286661</v>
-      </c>
-      <c r="J5">
-        <v>0.1087520567958193</v>
-      </c>
-      <c r="K5">
-        <v>0.4037777743409065</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>2.59920742881416</v>
       </c>
-      <c r="G6">
-        <v>-6.182107894485603</v>
-      </c>
-      <c r="H6">
-        <v>0.3832232465968773</v>
-      </c>
-      <c r="I6">
-        <v>0.6782489641419646</v>
-      </c>
-      <c r="J6">
-        <v>-1.892337393779635</v>
-      </c>
-      <c r="K6">
-        <v>1.355152977622061</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-2.075634305080569</v>
       </c>
-      <c r="I7">
-        <v>1.171856066321127</v>
-      </c>
-      <c r="J7">
-        <v>0.9082586945831972</v>
-      </c>
-      <c r="K7">
-        <v>-1.702262283109177</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>-1.930720272609837</v>
       </c>
-      <c r="G8">
-        <v>1.316770098791859</v>
-      </c>
-      <c r="H8">
-        <v>1.053172727053929</v>
-      </c>
-      <c r="I8">
-        <v>-1.557348250638445</v>
-      </c>
-      <c r="J8">
-        <v>0.7036818179999742</v>
-      </c>
-      <c r="K8">
-        <v>2.057818761722369</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>1.522601316916649</v>
       </c>
-      <c r="I9">
-        <v>2.876738260639044</v>
-      </c>
-      <c r="J9">
-        <v>-1.121800249328544</v>
-      </c>
-      <c r="K9">
-        <v>-1.568331859012645</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>1.478382846592115</v>
       </c>
-      <c r="G10">
-        <v>2.832519790314509</v>
-      </c>
-      <c r="H10">
-        <v>-1.166018719653078</v>
-      </c>
-      <c r="I10">
-        <v>-1.61255032933718</v>
-      </c>
-      <c r="J10">
-        <v>0.5495046226940759</v>
-      </c>
-      <c r="K10">
-        <v>-2.89593333490856</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.5642839747178968</v>
       </c>
-      <c r="I11">
-        <v>-2.881153982884739</v>
-      </c>
-      <c r="J11">
-        <v>4.654218452100936</v>
-      </c>
-      <c r="K11">
-        <v>1.107670388511424</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.8835860817503973</v>
       </c>
-      <c r="G12">
-        <v>-2.561851875852238</v>
-      </c>
-      <c r="H12">
-        <v>4.973520559133437</v>
-      </c>
-      <c r="I12">
-        <v>1.426972495543925</v>
-      </c>
-      <c r="J12">
-        <v>-0.2467896997245982</v>
-      </c>
-      <c r="K12">
-        <v>-0.621031966965472</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-1.287007245357048</v>
       </c>
-      <c r="I13">
-        <v>-1.661249512597922</v>
-      </c>
-      <c r="J13">
-        <v>1.339880579267825</v>
-      </c>
-      <c r="K13">
-        <v>0.3637186274690521</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-1.284780431539545</v>
       </c>
-      <c r="G14">
-        <v>-1.659022698780418</v>
-      </c>
-      <c r="H14">
-        <v>1.342107393085328</v>
-      </c>
-      <c r="I14">
-        <v>0.3659454412865558</v>
-      </c>
-      <c r="J14">
-        <v>-1.929023998798797</v>
-      </c>
-      <c r="K14">
-        <v>-2.284517558962435</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-1.398613147423345</v>
       </c>
-      <c r="I15">
-        <v>-1.754106707586982</v>
-      </c>
-      <c r="J15">
-        <v>2.478563951183577</v>
-      </c>
-      <c r="K15">
-        <v>0.2922238094781761</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-1.7190886628035</v>
       </c>
-      <c r="G16">
-        <v>-2.074582222967138</v>
-      </c>
-      <c r="H16">
-        <v>2.158088435803421</v>
-      </c>
-      <c r="I16">
-        <v>-0.02825170590197956</v>
-      </c>
-      <c r="J16">
-        <v>-0.5729825583898389</v>
-      </c>
-      <c r="K16">
-        <v>-2.049374377194824</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.3866548190533337</v>
       </c>
-      <c r="I17">
-        <v>-1.863046637858318</v>
-      </c>
-      <c r="J17">
-        <v>-0.05777432076874334</v>
-      </c>
-      <c r="K17">
-        <v>0.8691240358678698</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>1.010188595107371</v>
       </c>
-      <c r="K18">
-        <v>-1.419234774058134</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.8943605336256795</v>
       </c>
-      <c r="I19">
-        <v>-1.535062835539826</v>
-      </c>
-      <c r="J19">
-        <v>-0.07211974765800022</v>
-      </c>
-      <c r="K19">
-        <v>-0.362968985056385</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-1.440349059881592</v>
       </c>
-      <c r="K20">
-        <v>-2.056025985934315</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>-0.7078306314752494</v>
       </c>
-      <c r="I21">
-        <v>-1.323507557527972</v>
-      </c>
-      <c r="J21">
-        <v>1.602907188952554</v>
-      </c>
-      <c r="K21">
-        <v>-0.5964879289583422</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>0.01501271136055782</v>
       </c>
-      <c r="K22">
-        <v>-3.484537237275691</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.03220744396473518</v>
       </c>
-      <c r="J23">
-        <v>-3.467342504671513</v>
-      </c>
-      <c r="K23">
-        <v>4.854790911754233</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.2819014647951462</v>
       </c>
-      <c r="I24">
-        <v>-3.217648483841102</v>
-      </c>
-      <c r="J24">
-        <v>5.104484932584644</v>
-      </c>
-      <c r="K24">
-        <v>2.84956630682955</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-1.234697206830665</v>
       </c>
-      <c r="K26">
-        <v>-0.5410917011101096</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-1.063436696208778</v>
       </c>
-      <c r="J27">
-        <v>-0.3698311904882232</v>
-      </c>
-      <c r="K27">
-        <v>0.4947839044286908</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-0.8781958007152468</v>
       </c>
-      <c r="I28">
-        <v>-0.1845902949946918</v>
-      </c>
-      <c r="J28">
-        <v>0.6800247999222222</v>
-      </c>
-      <c r="K28">
-        <v>3.294128631961939</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>0.634807876071747</v>
       </c>
-      <c r="K30">
-        <v>-3.951825383950663</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>0.5949174617817761</v>
       </c>
-      <c r="J31">
-        <v>-3.991715798240634</v>
-      </c>
-      <c r="K31">
-        <v>3.993058161748805</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>0.9787424369358877</v>
       </c>
-      <c r="I32">
-        <v>-3.607890823086522</v>
-      </c>
-      <c r="J32">
-        <v>4.376883136902917</v>
-      </c>
-      <c r="K32">
-        <v>2.448161103956947</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>3.281440956879567</v>
       </c>
-      <c r="K34">
-        <v>-3.503526958933943</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>3.321718145928301</v>
       </c>
-      <c r="J35">
-        <v>-3.463249769885209</v>
-      </c>
-      <c r="K35">
-        <v>0.2373716882174361</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>3.554521526602182</v>
       </c>
-      <c r="I36">
-        <v>-3.230446389211328</v>
-      </c>
-      <c r="J36">
-        <v>0.4701750688913175</v>
-      </c>
-      <c r="K36">
-        <v>0.2706603698467755</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>1.876033954630029</v>
       </c>
-      <c r="K38">
-        <v>-2.558302270139054</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>1.849276442103833</v>
       </c>
-      <c r="J39">
-        <v>-2.58505978266525</v>
-      </c>
-      <c r="K39">
-        <v>2.135731720098978</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>2.135188605360601</v>
       </c>
-      <c r="I40">
-        <v>-2.299147619408482</v>
-      </c>
-      <c r="J40">
-        <v>2.421643883355746</v>
-      </c>
-      <c r="K40">
-        <v>0.7599842141584123</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>-1.689890446929519</v>
       </c>
-      <c r="K42">
-        <v>-1.173763068387112</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-1.445971786737998</v>
       </c>
-      <c r="J43">
-        <v>-0.9298444081955908</v>
-      </c>
-      <c r="K43">
-        <v>1.671198731940892</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-0.9586852881978885</v>
-      </c>
-      <c r="I44">
-        <v>-0.4425579096554815</v>
-      </c>
-      <c r="J44">
-        <v>2.158485230481002</v>
       </c>
     </row>
     <row r="45" spans="1:11">
